--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08066AA2-ED2B-9349-9644-FA2B3FAC4944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E9FD7-2493-BC42-816F-5D402B393398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38180" yWindow="660" windowWidth="38020" windowHeight="20780" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28400" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="346">
   <si>
     <t>text_id</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Globeville, Elyria, and Swansea (GES) are neighborhoods in the North Denver area bordering Commerce City. Officially designated as Globeville and Elyria-Swansea by the city of Denver, these communities are some of the oldest in Denver. Today, the neighborhoods are home to a vibrant Hispanic culture, which intertwines with the heritage of the European immigrants who originally lived in the area to create a community unlike anywhere else in Denver. The more than 11,000 residents of GES contend with poor environmental quality and encroachment by a growing city while fighting to maintain the community and culture they call home.</t>
   </si>
   <si>
-    <t>&lt;b&gt;How to use this app:&lt;/b&gt; This app includes tools to help users understand better the distribution of environmental exposures across Denver. The purpose of this app is to document trends in the social and environmental factors that impact health in Denver neighborhoods so that community residents can learn more about the conditions that exist where they live.  The data available in this app should not be used to make determinations about specific causes of health or disease in the neighborhoods.</t>
-  </si>
-  <si>
     <t>We invite you to continue reading to learn more about the GES Health Study Interactive Maps app.</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>On the &lt;b&gt;From the Community Council&lt;/b&gt; tab, you'll find an important message from the GES Community Council about this interactive tool.</t>
   </si>
   <si>
-    <t>On the &lt;b&gt;Interactive Maps&lt;/b&gt; tab, you'll be able to create maps showing a population variable and an environmental variable of concern to the community. These maps will show differences across neighborhoods. Then, you'll be able to compare your chosen variables between two neighborhoods of interest.</t>
-  </si>
-  <si>
     <t>You will also have the option to download the data used to create the map to your computer.</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>Globeville, Elyria y Swansea (GES) son vecindarios en el área del norte de Denver que limitan con Commerce City. Designadas oficialmente como Globeville y Elyria-Swansea por la ciudad de Denver, estas comunidades son algunas de las más antiguas de Denver. Hoy, los vecindarios albergan una vibrante cultura hispana, que se entrelaza con la herencia de los inmigrantes europeos que originalmente vivían en el área para crear una comunidad diferente a cualquier otro lugar de Denver. Los más de 11.000 residentes de GES se enfrentan a una mala calidad ambiental y a la invasión de una ciudad en crecimiento mientras luchan por mantener la comunidad y la cultura que consideran su hogar.</t>
   </si>
   <si>
-    <t>&lt;b&gt;Cómo utilizar esta aplicación:&lt;/b&gt; Esta aplicación incluye herramientas para ayudar a los usuarios a comprender mejor la distribución de las exposiciones ambientales en Denver. El propósito de esta aplicación es documentar las tendencias en los factores sociales y ambientales que afectan la salud en los vecindarios de Denver para que los residentes de la comunidad puedan aprender más sobre las condiciones que existen en el lugar donde viven. Los datos disponibles en esta aplicación no deben usarse para hacer determinaciones sobre causas específicas de salud o enfermedad en los vecindarios.</t>
-  </si>
-  <si>
     <t>Te invitamos a continuar leyendo para conocer más sobre la aplicación Mapas interactivos del Estudio de Salud GES.</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
     <t>Community-Relevant Summary</t>
   </si>
   <si>
-    <t>Insert communty-relevant summary here</t>
-  </si>
-  <si>
     <t>Map Options</t>
   </si>
   <si>
@@ -426,9 +414,6 @@
   </si>
   <si>
     <t>These data are from the 2016-2020 American Community Survey (ACS). The ACS is run by the US Census Bureau and provides more detailed information than the full census that occurs every ten years. This ACS also tried to account for people who did not respond in the 2020 census (for example, because of citizenship questions).</t>
-  </si>
-  <si>
-    <t>Each unit in this map represents a census tracts. Census tracts mostly follow other natural or human-made boundaries and include about 3,000 to 6,000 people. GES is now made up of three tracts, one for Globevile, and two for the Elyria and Swansea areas. Census tracts are very useful in this study because they have the most detailed information available from the census and allow for comparison between GES and other parts of Denver.</t>
   </si>
   <si>
     <t>Source: ACS 2016-2020 5 Year Estimates via &lt;a href='https://www.census.gov/newsroom/press-kits/2021/acs-5-year.html'&gt; US Census Bureau&lt;/a&gt;. Updated 2023-02-15</t>
@@ -814,9 +799,6 @@
     <t>En la página &lt;b&gt;Desde el Consejo Comunitario&lt;/b&gt;, encontrará un mensaje importante del Consejo Comunitario de GES sobre esta herramienta interactiva.</t>
   </si>
   <si>
-    <t>En la página &lt;b&gt;Mapas interactivos&lt;/b&gt;, podrá crear mapas que muestren una variable de población y una variable ambiental de interés para la comunidad. Estos mapas mostrarán las diferencias entre los vecindarios. Luego, podrá comparar las variables elegidas entre dos vecindarios de interés.</t>
-  </si>
-  <si>
     <t>En la página &lt;b&gt;Mapas de la comunidad&lt;/b&gt;, podrá explorar los mapas que destacan las ubicaciones en Globeville, Elyria y Swansea identificadas por los miembros del consejo comunitario de GES y los residentes del vecindario como lugares de orgullo y preocupación para la comunidad. Los datos presentados en estos mapas se recopilaron durante una serie de actividades y reuniones realizadas en 2022 y 2023.</t>
   </si>
   <si>
@@ -953,6 +935,147 @@
   </si>
   <si>
     <t>Descargar este gráfico</t>
+  </si>
+  <si>
+    <t>text_102</t>
+  </si>
+  <si>
+    <t>text_103</t>
+  </si>
+  <si>
+    <t>text_104</t>
+  </si>
+  <si>
+    <t>text_105</t>
+  </si>
+  <si>
+    <t>text_106</t>
+  </si>
+  <si>
+    <t>text_107</t>
+  </si>
+  <si>
+    <t>text_108</t>
+  </si>
+  <si>
+    <t>These maps show the population characteristic on the left and the environmental variable on the right. The colors represent the values for these data in each neighborhood. Darker colors represent higher values. You can use your mouse to hover over each of the neighborhoods to find out the value for each variable.</t>
+  </si>
+  <si>
+    <t>These bars represent the range  values for each of the variables. The bar on top shows the range of values for the population variable and the bar on the bottom shows the range of values for the environmental variable. Each bar has lines that show where each of the selected neighborhoods falls in these ranges. The value on the top of each bar is Neighborhood 1 (shown in red) and the value on the bottom of each bar is Neighborhood 2 (shown in blue).</t>
+  </si>
+  <si>
+    <t>These maps show the population characteristic on the left and the health variable on the right. The colors represent the values for these data in each neighborhood. Darker colors represent higher values. You can use your mouse to hover over each of the neighborhoods to find out the value for each variable.</t>
+  </si>
+  <si>
+    <t>These histograms represent the frequency of values for each of the variables. The histogram on the left shows the range of values for the population variable and the histogram on the right shows the range of values for the environmental variable. The ranges for each variable are divided into 30 bins, represented by the width of each bar. The height of each bar represents the number of neighborhoods in the bin. Each histogram also includes an indicator of where the GES neighborhoods fall in this range of values.</t>
+  </si>
+  <si>
+    <t>These histograms represent the frequency of values for each of the variables. The histogram on the left shows the range of values for the population variable and the histogram on the right shows the range of values for the health variable. The ranges for each variable are divided into 30 bins, represented by the width of each bar. The height of each bar represents the number of neighborhoods in the bin. Each histogram also includes an indicator of where the GES neighborhoods fall in this range of values.</t>
+  </si>
+  <si>
+    <t>These bars represent the range  values for each of the variables. The bar on top shows the range of values for the population variable and the bar on the bottom shows the range of values for the health variable. Each bar has lines that show where each of the selected neighborhoods falls in these ranges. The value on the top of each bar is Neighborhood 1 (shown in red) and the value on the bottom of each bar is Neighborhood 2 (shown in blue).</t>
+  </si>
+  <si>
+    <t>Estos mapas muestran la característica de la población a la izquierda y la variable ambiental a la derecha. Los colores representan los valores de estos datos en cada barrio. Los colores más oscuros representan valores más altos. Puede utilizar el ratón para desplazarse sobre cada uno de los barrios y averiguar el valor de cada variable.</t>
+  </si>
+  <si>
+    <t>Estos histogramas representan la frecuencia de los valores de cada una de las variables. El histograma de la izquierda muestra el rango de valores de la variable de población y el histograma de la derecha muestra el rango de valores de la variable ambiental. Los rangos de cada variable se dividen en 30 compartimentos, representados por el ancho de cada barra. La altura de cada barra representa la cantidad de vecindarios en el compartimento. Cada histograma también incluye un indicador de dónde se ubican los vecindarios del GES en este rango de valores.</t>
+  </si>
+  <si>
+    <t>Estas barras representan los valores de rango para cada una de las variables. La barra superior muestra el rango de valores para la variable de población y la barra inferior muestra el rango de valores para la variable ambiental. Cada barra tiene líneas que muestran dónde se ubica cada uno de los vecindarios seleccionados en estos rangos. El valor en la parte superior de cada barra es el Barrio 1 (mostrado en rojo) y el valor en la parte inferior de cada barra es el Barrio 2 (mostrado en azul).</t>
+  </si>
+  <si>
+    <t>Estos mapas muestran la característica de la población a la izquierda y la variable de salud a la derecha. Los colores representan los valores de estos datos en cada barrio. Los colores más oscuros representan valores más altos. Puede utilizar el ratón para desplazarse sobre cada uno de los barrios y averiguar el valor de cada variable.</t>
+  </si>
+  <si>
+    <t>Estos histogramas representan la frecuencia de los valores de cada una de las variables. El histograma de la izquierda muestra el rango de valores de la variable de población y el histograma de la derecha muestra el rango de valores de la variable de salud. Los rangos de cada variable se dividen en 30 compartimentos, representados por el ancho de cada barra. La altura de cada barra representa la cantidad de vecindarios en el compartimento. Cada histograma también incluye un indicador de dónde se ubican los vecindarios del GES en este rango de valores.</t>
+  </si>
+  <si>
+    <t>Estas barras representan los valores de rango para cada una de las variables. La barra superior muestra el rango de valores para la variable de población y la barra inferior muestra el rango de valores para la variable de salud. Cada barra tiene líneas que muestran dónde se ubica cada uno de los vecindarios seleccionados en estos rangos. El valor en la parte superior de cada barra es el Barrio 1 (mostrado en rojo) y el valor en la parte inferior de cada barra es el Barrio 2 (mostrado en azul).</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;How to use this app:&lt;/b&gt; This app includes tools to help users understand better the distribution of environmental exposures and health outcomes across Denver. The purpose of this app is to document trends in the social and environmental factors that impact health in Denver neighborhoods so that community residents can learn more about the conditions that exist where they live.  The data available in this app should not be used to make determinations about specific causes of health or disease for any resident living in Denver</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Cómo utilizar esta aplicación:&lt;/b&gt; Esta aplicación incluye herramientas para ayudar a los usuarios a comprender mejor la distribución de las exposiciones ambientales y los efectos sobre la salud en Denver. El propósito de esta aplicación es documentar las tendencias en los factores sociales y ambientales que afectan la salud en los vecindarios de Denver para que los residentes de la comunidad puedan aprender más sobre las condiciones que existen en el lugar donde viven. Los datos disponibles en esta aplicación no deben usarse para determinar causas específicas de salud o enfermedad para ningún residente que viva en Denver.</t>
+  </si>
+  <si>
+    <t>On the &lt;b&gt;Interactive Maps: Environment&lt;/b&gt; tab, you'll be able to create maps showing a population variable and an environmental variable of concern to the community. These maps will show differences across neighborhoods. Then, you'll be able to compare your chosen variables between two neighborhoods of interest. All of the figures on this tab can be downloaded by the user.</t>
+  </si>
+  <si>
+    <t>On the &lt;b&gt;Interactive Maps: Health&lt;/b&gt; tab, you'll be able to create maps showing a population variable and health outcome variable of concern to the community. These maps will show differences across neighborhoods. Then, you'll be able to compare your chosen variables between two neighborhoods of interest. All of the figures on this tab can be downloaded by the user.</t>
+  </si>
+  <si>
+    <t>En la página &lt;b&gt;Mapas interactivos: Salud&lt;/b&gt;, podrá crear mapas que muestren una variable de población y una variable de resultado de salud que sean de interés para la comunidad. Estos mapas mostrarán las diferencias entre los vecindarios. Luego, podrá comparar las variables elegidas entre dos vecindarios de interés. El usuario puede descargar todas las figuras de esta página.</t>
+  </si>
+  <si>
+    <t>text_109</t>
+  </si>
+  <si>
+    <t>text_110</t>
+  </si>
+  <si>
+    <t>text_111</t>
+  </si>
+  <si>
+    <t>text_112</t>
+  </si>
+  <si>
+    <t>text_113</t>
+  </si>
+  <si>
+    <t>text_114</t>
+  </si>
+  <si>
+    <t>En la página &lt;b&gt;Mapas interactivos: Medio ambiente&lt;/b&gt;, podrá crear mapas que muestren una variable de población y una variable ambiental de interés para la comunidad. Estos mapas mostrarán las diferencias entre los vecindarios. Luego, podrá comparar las variables elegidas entre dos vecindarios de interés. El usuario puede descargar todas las cifras de esta página.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A histogram of </t>
+  </si>
+  <si>
+    <t>Un histograma de</t>
+  </si>
+  <si>
+    <t>Figure 1:</t>
+  </si>
+  <si>
+    <t>Figure 2:</t>
+  </si>
+  <si>
+    <t>Figure 3:</t>
+  </si>
+  <si>
+    <t>Figure 4:</t>
+  </si>
+  <si>
+    <t>Figure 5:</t>
+  </si>
+  <si>
+    <t>Figura 1:</t>
+  </si>
+  <si>
+    <t>Figura 2:</t>
+  </si>
+  <si>
+    <t>Figura 3:</t>
+  </si>
+  <si>
+    <t>Figura 4:</t>
+  </si>
+  <si>
+    <t>Figura 5:</t>
+  </si>
+  <si>
+    <t>Shown above: An interactive map showing the names of Denver neighborhoods.</t>
+  </si>
+  <si>
+    <t>Arriba se muestra un mapa interactivo que muestra los nombres de los vecindarios de Denver.</t>
+  </si>
+  <si>
+    <t>Insert community-relevant summary here</t>
+  </si>
+  <si>
+    <t>Each unit in this map represents a census tracts. Census tracts mostly follow other natural or human-made boundaries and include about 3,000 to 6,000 people. GES is now made up of three tracts, one for Globeville, and two for the Elyria and Swansea areas. Census tracts are very useful in this study because they have the most detailed information available from the census and allow for comparison between GES and other parts of Denver.</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B89" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,24 +1513,24 @@
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1418,7 +1541,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1426,10 +1549,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1437,10 +1560,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1451,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -1462,7 +1585,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -1470,10 +1593,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1481,10 +1604,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1492,10 +1615,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1503,10 +1626,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1514,21 +1637,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1536,10 +1659,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1547,10 +1670,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1558,10 +1681,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1569,10 +1692,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1580,10 +1703,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1591,10 +1714,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1602,10 +1725,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1613,10 +1736,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1624,10 +1747,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1635,10 +1758,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1646,10 +1769,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1657,10 +1780,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1668,10 +1791,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1679,10 +1802,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1690,10 +1813,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1701,10 +1824,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1712,10 +1835,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1723,10 +1846,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1734,10 +1857,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1745,10 +1868,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1756,10 +1879,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1767,10 +1890,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1778,10 +1901,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1789,10 +1912,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1800,10 +1923,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1811,10 +1934,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1822,10 +1945,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1833,680 +1956,829 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>130</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>284</v>
+      <c r="B110" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E9FD7-2493-BC42-816F-5D402B393398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB95A40-6023-0F41-8BF1-A25506BC4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28400" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
@@ -892,9 +892,6 @@
     <t>Desplácese sobre cada barrio para encontrar su nombre.</t>
   </si>
   <si>
-    <t>Scroll over each neighborhood to find it's name.</t>
-  </si>
-  <si>
     <t>A map highlighting</t>
   </si>
   <si>
@@ -1076,6 +1073,9 @@
   </si>
   <si>
     <t>Each unit in this map represents a census tracts. Census tracts mostly follow other natural or human-made boundaries and include about 3,000 to 6,000 people. GES is now made up of three tracts, one for Globeville, and two for the Elyria and Swansea areas. Census tracts are very useful in this study because they have the most detailed information available from the census and allow for comparison between GES and other parts of Denver.</t>
+  </si>
+  <si>
+    <t>Scroll over each neighborhood to find its name.</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B89" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,10 +1593,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1648,10 +1648,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>184</v>
@@ -2121,7 +2121,7 @@
         <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>214</v>
@@ -2539,7 +2539,7 @@
         <v>269</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>283</v>
@@ -2550,10 +2550,10 @@
         <v>270</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2561,10 +2561,10 @@
         <v>271</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2572,10 +2572,10 @@
         <v>272</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2583,10 +2583,10 @@
         <v>273</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2594,10 +2594,10 @@
         <v>274</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2605,10 +2605,10 @@
         <v>275</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2616,10 +2616,10 @@
         <v>276</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2627,10 +2627,10 @@
         <v>277</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -2638,147 +2638,147 @@
         <v>278</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB95A40-6023-0F41-8BF1-A25506BC4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496217B-8204-494F-8671-3F074E091E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28400" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="348">
   <si>
     <t>text_id</t>
   </si>
@@ -1076,6 +1076,12 @@
   </si>
   <si>
     <t>Scroll over each neighborhood to find its name.</t>
+  </si>
+  <si>
+    <t>An interactive map showing the names of Denver neighborhoods.</t>
+  </si>
+  <si>
+    <t>Un mapa interactivo que muestra los nombres de los vecindarios de Denver.</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2776,9 +2782,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>327</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496217B-8204-494F-8671-3F074E091E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72932464-8EEE-D946-95A8-DB8ACE469CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28400" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="-34780" yWindow="1200" windowWidth="28400" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="361">
   <si>
     <t>text_id</t>
   </si>
@@ -1082,6 +1082,45 @@
   </si>
   <si>
     <t>Un mapa interactivo que muestra los nombres de los vecindarios de Denver.</t>
+  </si>
+  <si>
+    <t>text_115</t>
+  </si>
+  <si>
+    <t>text_116</t>
+  </si>
+  <si>
+    <t>text_117</t>
+  </si>
+  <si>
+    <t>text_118</t>
+  </si>
+  <si>
+    <t>text_119</t>
+  </si>
+  <si>
+    <t>Find a Neighborhood</t>
+  </si>
+  <si>
+    <t>Enter an address to find its neighborhood:</t>
+  </si>
+  <si>
+    <t>Format: 213 Anystreet, Denver, CO 80216</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Encuentra un vecindario</t>
+  </si>
+  <si>
+    <t>Introduzca una dirección para encontrar su barrio:</t>
+  </si>
+  <si>
+    <t>Formato: 213 Anystreet, Denver, CO 80216</t>
+  </si>
+  <si>
+    <t>Dirección</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2793,6 +2832,61 @@
         <v>347</v>
       </c>
     </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72932464-8EEE-D946-95A8-DB8ACE469CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D7602-9DC0-FA40-9912-79D9ABAE3414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34780" yWindow="1200" windowWidth="28400" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="373">
   <si>
     <t>text_id</t>
   </si>
@@ -1108,9 +1108,6 @@
     <t>Format: 213 Anystreet, Denver, CO 80216</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Encuentra un vecindario</t>
   </si>
   <si>
@@ -1120,7 +1117,46 @@
     <t>Formato: 213 Anystreet, Denver, CO 80216</t>
   </si>
   <si>
-    <t>Dirección</t>
+    <t>text_120</t>
+  </si>
+  <si>
+    <t>text_121</t>
+  </si>
+  <si>
+    <t>text_122</t>
+  </si>
+  <si>
+    <t>text_123</t>
+  </si>
+  <si>
+    <t>About the "Find a Neighborhood" tool:</t>
+  </si>
+  <si>
+    <t>"When you submit a geocode request, the web server automatically collects certain technical information from your computer and about your connection. The only information that is stored is IP Address (for batch and single address submissions) and submitted address (only for single address submissions). The information is stored on a server, which is internal to the Census network.  This server is only accessible by Census Bureau staff, who are bound by the confidentiality requirements set forth in Title 13 of the United States Code and requires multiple levels of approval. This information is only used to monitor and track the performance of the Geocoder."</t>
+  </si>
+  <si>
+    <t>To find the neighborhood associated with an address, we use a geocoder run by the US Census Bureau. The following information from the US Census Bureau descibes how they use the address information you provide:</t>
+  </si>
+  <si>
+    <t>Acerca de la herramienta "Buscar un vecindario":</t>
+  </si>
+  <si>
+    <t>Para encontrar el vecindario asociado con una dirección, utilizamos un geocodificador administrado por la Oficina del Censo de los EE. UU. La siguiente información de la Oficina del Censo de los EE. UU. describe cómo utilizan la información de la dirección que usted proporciona:</t>
+  </si>
+  <si>
+    <t>"Cuando envía una solicitud de geocodificación, el servidor web recopila automáticamente cierta información técnica de su computadora y sobre su conexión. La única información que se almacena es la dirección IP (para envíos por lotes y de una sola dirección) y la dirección enviada (solo para envíos de una sola dirección). La información se almacena en un servidor, que es interno a la red del Censo. A este servidor solo puede acceder el personal de la Oficina del Censo, que está sujeto a los requisitos de confidencialidad establecidos en el Título 13 del Código de los Estados Unidos y requiere múltiples niveles de aprobación. Esta información solo se utiliza para monitorear y hacer un seguimiento del rendimiento del geocodificador".</t>
+  </si>
+  <si>
+    <t>Si no desea ingresar su propia dirección, puede ingresar la dirección de una empresa local u otra ubicación en el vecindario de interés.</t>
+  </si>
+  <si>
+    <t>If you do not wish to enter your own address, you can enter the address of a local business or another location in the neighborhood of interest.</t>
+  </si>
+  <si>
+    <t>Dirección:</t>
+  </si>
+  <si>
+    <t>Address:</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:XFD124"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2840,7 +2876,7 @@
         <v>353</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2851,7 +2887,7 @@
         <v>354</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2862,7 +2898,7 @@
         <v>355</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2870,10 +2906,10 @@
         <v>351</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2884,7 +2920,51 @@
         <v>353</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D7602-9DC0-FA40-9912-79D9ABAE3414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F603D1-5399-F945-BFDC-085860A0533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34780" yWindow="1200" windowWidth="28400" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
@@ -769,12 +769,6 @@
     <t>text_86</t>
   </si>
   <si>
-    <t>The data and code used to develop this Shiny app can be found on Github: &lt;a href='https://github.com/smartenies/ges_health_study_app'&gt; GES Health Study App&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Los datos y el código utilizados para desarrollar esta aplicación Shiny se pueden encontrar en Github: &lt;a href='https://github.com/smartenies/ges_health_study_app'&gt;Aplicación de estudio de salud GES&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Puede encontrar información sobre el trabajo que realiza el CDPHE para proteger la salud y el medio ambiente en el &lt;a href='https://cdphe.colorado.gov/public-information'&gt;sitio web de información pública del CDPHE&lt;/a&gt;.</t>
   </si>
   <si>
@@ -1157,6 +1151,12 @@
   </si>
   <si>
     <t>Address:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The code and methods used to develop this Shiny app can be found on Github: &lt;a href='https://github.com/smartenies/ges_health_study_app'&gt; GES Health Study App&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>El código y los métodos utilizados para desarrollar esta aplicación Shiny se pueden encontrar en Github: &lt;a href='https://github.com/smartenies/ges_health_study_app'&gt;Aplicación de estudio de salud GES&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1674,10 +1674,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1718,10 +1718,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1729,10 +1729,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>181</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1861,7 +1861,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>184</v>
@@ -1949,7 +1949,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>192</v>
@@ -2202,7 +2202,7 @@
         <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>214</v>
@@ -2301,10 +2301,10 @@
         <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2312,10 +2312,10 @@
         <v>108</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2554,62 +2554,62 @@
         <v>242</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>243</v>
+        <v>371</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>192</v>
@@ -2617,354 +2617,354 @@
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F603D1-5399-F945-BFDC-085860A0533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB0880-12C0-A944-A6C8-DC4413E42ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34780" yWindow="1200" windowWidth="28400" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -718,12 +718,6 @@
     <t>Esta herramienta de mapeo dinámico es una colaboración entre ENVIRONS y el Consejo Comunitario del Estudio de Salud de GES. Esta herramienta permite a los usuarios comparar las características de la población y las exposiciones ambientales en los vecindarios de Denver. Se creó teniendo en cuenta las necesidades de datos de la comunidad y se basó en los comentarios de nuestro Consejo Comunitario de GES.</t>
   </si>
   <si>
-    <t>Los miembros actuales del Consejo Comunitario de GES que contribuyeron al desarrollo de esta herramienta son Nancy Santos (residente de Swansea), Dolores Alfaro (residente de Elyria) y Ana Varela (residente de Elyria). Los ex miembros del Consejo Comunitario de GES que contribuyeron a la interpretación de los datos comunitarios incluidos en esta herramienta incluyen a: Sandra Ruiz Parilla, Maria de Santiago y Rebecca Trujillo.</t>
-  </si>
-  <si>
-    <t>Current GES Community Council members who contributed to the development of this tool are Nancy Santos (Swansea Resident), Dolores Alfaro (Elyria Resident) and Ana Varela (Elyria Resident). Former members of the GES Community Council who contributed to the interpretation of community data featured in this tool include: Sandra Ruiz Parilla, Maria de Santiago, and Rebecca Trujillo.</t>
-  </si>
-  <si>
     <t>El equipo actual de ENVIRONS está formado por la Dra. Sheryl Magzamen, la Dra. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocio Monroy-Tello y Nona Nyart. Marshall Thomas (ex miembro de ENVIRONS) también contribuyó al desarrollo de los conjuntos de datos utilizados en esta herramienta.</t>
   </si>
   <si>
@@ -1132,9 +1126,6 @@
     <t>To find the neighborhood associated with an address, we use a geocoder run by the US Census Bureau. The following information from the US Census Bureau descibes how they use the address information you provide:</t>
   </si>
   <si>
-    <t>Acerca de la herramienta "Buscar un vecindario":</t>
-  </si>
-  <si>
     <t>Para encontrar el vecindario asociado con una dirección, utilizamos un geocodificador administrado por la Oficina del Censo de los EE. UU. La siguiente información de la Oficina del Censo de los EE. UU. describe cómo utilizan la información de la dirección que usted proporciona:</t>
   </si>
   <si>
@@ -1157,6 +1148,15 @@
   </si>
   <si>
     <t>El código y los métodos utilizados para desarrollar esta aplicación Shiny se pueden encontrar en Github: &lt;a href='https://github.com/smartenies/ges_health_study_app'&gt;Aplicación de estudio de salud GES&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Sobre de la herramienta "Buscar un vecindario":</t>
+  </si>
+  <si>
+    <t>Current GES Community Council members who contributed to the development of this tool are Nancy Santos (Swansea Resident), Dolores Alfaro (Elyria Resident), Ana Varela (Elyria Resident), and Sandra Ruiz Parrilla (Globeville Resident). Former members of the GES Community Council who contributed to the interpretation of community data featured in this tool include:  Maria de Santiago, and Rebecca Trujillo.</t>
+  </si>
+  <si>
+    <t>Los miembros actuales del Consejo Comunitario de GES que contribuyeron al desarrollo de esta herramienta son Nancy Santos (residente de Swansea), Dolores Alfaro (residente de Elyria), Ana Varela (residente de Elyria), y Sandra Ruiz Parrilla (residente de Globeville). Los ex miembros del Consejo Comunitario de GES que contribuyeron a la interpretación de los datos comunitarios incluidos en esta herramienta incluyen a: Maria de Santiago y Rebecca Trujillo.</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1674,10 +1674,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1718,10 +1718,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1729,10 +1729,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>181</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1861,7 +1861,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>184</v>
@@ -1949,7 +1949,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>192</v>
@@ -1982,10 +1982,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2202,7 +2202,7 @@
         <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>214</v>
@@ -2301,10 +2301,10 @@
         <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2312,10 +2312,10 @@
         <v>108</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2356,10 +2356,10 @@
         <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>227</v>
+        <v>371</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>137</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>150</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2392,7 +2392,7 @@
         <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2400,10 +2400,10 @@
         <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>152</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>153</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2433,10 +2433,10 @@
         <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2540,76 +2540,76 @@
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>192</v>
@@ -2617,354 +2617,354 @@
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB0880-12C0-A944-A6C8-DC4413E42ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09155EF1-ACA2-DD4D-B9E5-C62B0745994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
@@ -1153,10 +1153,10 @@
     <t>Sobre de la herramienta "Buscar un vecindario":</t>
   </si>
   <si>
-    <t>Current GES Community Council members who contributed to the development of this tool are Nancy Santos (Swansea Resident), Dolores Alfaro (Elyria Resident), Ana Varela (Elyria Resident), and Sandra Ruiz Parrilla (Globeville Resident). Former members of the GES Community Council who contributed to the interpretation of community data featured in this tool include:  Maria de Santiago, and Rebecca Trujillo.</t>
-  </si>
-  <si>
-    <t>Los miembros actuales del Consejo Comunitario de GES que contribuyeron al desarrollo de esta herramienta son Nancy Santos (residente de Swansea), Dolores Alfaro (residente de Elyria), Ana Varela (residente de Elyria), y Sandra Ruiz Parrilla (residente de Globeville). Los ex miembros del Consejo Comunitario de GES que contribuyeron a la interpretación de los datos comunitarios incluidos en esta herramienta incluyen a: Maria de Santiago y Rebecca Trujillo.</t>
+    <t>Current GES Community Council members who contributed to the development of this tool are Nancy Santos (Swansea Resident), Dolores Alfaro (Elyria Resident), Ana Varela (Elyria Resident), and Sandra Ruiz Parrilla (Globeville Resident). Former members of the GES Community Council who contributed to the interpretation of community data featured in this tool include Maria de Santiago and Rebecca Trujillo.</t>
+  </si>
+  <si>
+    <t>Los miembros actuales del Consejo Comunitario de GES que contribuyeron al desarrollo de esta herramienta son Nancy Santos (residente de Swansea), Dolores Alfaro (residente de Elyria), Ana Varela (residente de Elyria), y Sandra Ruiz Parrilla (residente de Globeville). Los ex miembros del Consejo Comunitario de GES que contribuyeron a la interpretación de los datos comunitarios incluidos en esta herramienta incluyen a Maria de Santiago y Rebecca Trujillo.</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09155EF1-ACA2-DD4D-B9E5-C62B0745994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9958B47-6550-404A-AAB9-42AC83FEAF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="-34960" yWindow="2580" windowWidth="28800" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="373">
   <si>
     <t>text_id</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Save a CSV file</t>
   </si>
   <si>
-    <t>On this page, you can visualize maps of population variables and important environmental variables at the neighborhood level. To get started, choose a population variable and an environmental variable from the menu on the left-hand side of this page (Map Options).</t>
-  </si>
-  <si>
     <t>Under these maps are two charts (Variable Distributions) showing the range of values measured for each of your selected variables.</t>
   </si>
   <si>
@@ -437,15 +434,6 @@
     <t>Resources to Learn More</t>
   </si>
   <si>
-    <t>To learn more about health and environment in Globeville, Elyria, and Swansea, check out these other great resources:</t>
-  </si>
-  <si>
-    <t>Resource 3</t>
-  </si>
-  <si>
-    <t>Resource 4</t>
-  </si>
-  <si>
     <t>This dynamic mapping tool is a collaboration between ENVIRONS and the GES Health Study Community Council. This tool allows users to compare population characteristics and environmental exposures across neighborhoods in Denver. It was built with community data needs in mind and informed by feedback from our GES Community Council.</t>
   </si>
   <si>
@@ -609,9 +597,6 @@
   </si>
   <si>
     <t>Guardar un archivo CSV</t>
-  </si>
-  <si>
-    <t>En esta página, puede visualizar mapas de variables de población y variables ambientales importantes a nivel de barrio. Para comenzar, elija una variable de población y una variable ambiental en el menú del lado izquierdo de esta página (Opciones de mapa).</t>
   </si>
   <si>
     <t>A continuación aparecerán mapas de vecindarios que muestran estas dos variables para cada uno de los vecindarios de Denver.</t>
@@ -706,15 +691,6 @@
     <t>Recursos para aprender más</t>
   </si>
   <si>
-    <t>Para obtener más información sobre la salud y el medio ambiente en Globeville, Elyria y Swansea, consulte estos otros excelentes recursos:</t>
-  </si>
-  <si>
-    <t>Recurso 3</t>
-  </si>
-  <si>
-    <t>Recurso 4</t>
-  </si>
-  <si>
     <t>Esta herramienta de mapeo dinámico es una colaboración entre ENVIRONS y el Consejo Comunitario del Estudio de Salud de GES. Esta herramienta permite a los usuarios comparar las características de la población y las exposiciones ambientales en los vecindarios de Denver. Se creó teniendo en cuenta las necesidades de datos de la comunidad y se basó en los comentarios de nuestro Consejo Comunitario de GES.</t>
   </si>
   <si>
@@ -763,18 +739,6 @@
     <t>text_86</t>
   </si>
   <si>
-    <t>Puede encontrar información sobre el trabajo que realiza el CDPHE para proteger la salud y el medio ambiente en el &lt;a href='https://cdphe.colorado.gov/public-information'&gt;sitio web de información pública del CDPHE&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>To learn more about environmental justice issues across Colorado, check out  &lt;a href='https://cdphe.colorado.gov/enviroscreen'&gt; Colorado Enviroscreen 2.0&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Information about the work the CDPHE does to protect health and environment can be found on the &lt;a href='https://cdphe.colorado.gov/public-information'&gt;CDPHE Public Information website&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Para obtener más información sobre cuestiones de justicia ambiental en Colorado, consulte &lt;a href='https://cdphe.colorado.gov/enviroscreen'&gt; Colorado Enviroscreen 2.0&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>text_access</t>
   </si>
   <si>
@@ -871,12 +835,6 @@
     <t>Fuente de datos: Denver Open Data</t>
   </si>
   <si>
-    <t>On this page, you can visualize maps of population variables and important health variables at the neighborhood level. To get started, choose a population variable and health outcome variable from the menu on the left-hand side of this page (Map Options).</t>
-  </si>
-  <si>
-    <t>En esta página, puede visualizar mapas de variables de población y variables de salud importantes a nivel de barrio. Para comenzar, elija una variable de población y una variable de resultado de salud en el menú del lado izquierdo de esta página (Opciones de mapa).</t>
-  </si>
-  <si>
     <t>Desplácese sobre cada barrio para encontrar su nombre.</t>
   </si>
   <si>
@@ -1157,6 +1115,48 @@
   </si>
   <si>
     <t>Los miembros actuales del Consejo Comunitario de GES que contribuyeron al desarrollo de esta herramienta son Nancy Santos (residente de Swansea), Dolores Alfaro (residente de Elyria), Ana Varela (residente de Elyria), y Sandra Ruiz Parrilla (residente de Globeville). Los ex miembros del Consejo Comunitario de GES que contribuyeron a la interpretación de los datos comunitarios incluidos en esta herramienta incluyen a Maria de Santiago y Rebecca Trujillo.</t>
+  </si>
+  <si>
+    <t>On this page, you can visualize maps of population variables and important environmental variables at the neighborhood level. To get started, choose a population variable and an environmental variable from the menu on the left-hand side of this page (top of the page on mobile) (Map Options).</t>
+  </si>
+  <si>
+    <t>On this page, you can visualize maps of population variables and important health variables at the neighborhood level. To get started, choose a population variable and health outcome variable from the menu on the left-hand side of this page  (top of the page on mobile)  (Map Options).</t>
+  </si>
+  <si>
+    <t>En esta página, puede visualizar mapas de variables de población y variables de salud importantes a nivel de barrio. Para comenzar, elija una variable de población y una variable de resultado de salud en el menú del lado izquierdo de esta página (parte superior de la página en el móvil) (Opciones de mapa).</t>
+  </si>
+  <si>
+    <t>En esta página, puede visualizar mapas de variables de población y variables ambientales importantes a nivel de barrio. Para comenzar, elija una variable de población y una variable ambiental en el menú del lado izquierdo de esta página (parte superior de la página en el móvil) (Opciones de mapa).</t>
+  </si>
+  <si>
+    <t>text_124</t>
+  </si>
+  <si>
+    <t>text_125</t>
+  </si>
+  <si>
+    <t>To learn more about efforts to promote health, environment, food, and climate justice in Globeville, Elyria, and Swansea, check out these other great organizations:</t>
+  </si>
+  <si>
+    <t>Para obtener más información sobre los esfuerzos para promover la salud, el medio ambiente, la alimentación y la justicia climática en Globeville, Elyria y Swansea, consulte estas otras excelentes organizaciones:</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.ges-coalition.org/'&gt;GES Coalition&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.greenhouseconnectioncenter.com/'&gt;Green House Connection Center&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.facebook.com/p/Elyria-Globeville-Swansea-Partners-100083009972208/'&gt;EGS and Partners&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.cultivando.org/'&gt;Cultivando&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.birdseedcollective.org/'&gt;Birdseed Collective&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://groundworkcolorado.org/'&gt;Groundwork Denver&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1180,16 +1180,19 @@
     <font>
       <sz val="12"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1F1F1F"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1567,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1600,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
@@ -1605,13 +1608,13 @@
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1630,10 +1633,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1674,10 +1677,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1710,7 +1713,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1718,10 +1721,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1729,10 +1732,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1765,7 +1768,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1776,7 +1779,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1787,7 +1790,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1798,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1809,7 +1812,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1820,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1828,10 +1831,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1842,7 +1845,7 @@
         <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1853,7 +1856,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1861,10 +1864,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1875,7 +1878,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1886,7 +1889,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1897,7 +1900,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1908,7 +1911,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1919,7 +1922,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1930,18 +1933,18 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>191</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1949,10 +1952,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1960,10 +1963,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1971,10 +1974,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1982,10 +1985,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1993,10 +1996,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2004,10 +2007,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2015,10 +2018,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2026,10 +2029,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2037,934 +2040,956 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>134</v>
+      <c r="B68" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>223</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>135</v>
+        <v>109</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>224</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>364</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9958B47-6550-404A-AAB9-42AC83FEAF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB09C7-0C20-2B40-B633-602D120144E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34960" yWindow="2580" windowWidth="28800" windowHeight="16320" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="960" yWindow="980" windowWidth="37440" windowHeight="18520" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,9 +437,6 @@
     <t>This dynamic mapping tool is a collaboration between ENVIRONS and the GES Health Study Community Council. This tool allows users to compare population characteristics and environmental exposures across neighborhoods in Denver. It was built with community data needs in mind and informed by feedback from our GES Community Council.</t>
   </si>
   <si>
-    <t>The current ENVIRONS team includes: Dr. Sheryl Magzamen, Dr. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocio Monroy-Tello, and Nona Nyart. Marshall Thomas (former ENVIRONS member) also contributed to the development of the data sets used in this tool.</t>
-  </si>
-  <si>
     <t>text_70</t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>Esta herramienta de mapeo dinámico es una colaboración entre ENVIRONS y el Consejo Comunitario del Estudio de Salud de GES. Esta herramienta permite a los usuarios comparar las características de la población y las exposiciones ambientales en los vecindarios de Denver. Se creó teniendo en cuenta las necesidades de datos de la comunidad y se basó en los comentarios de nuestro Consejo Comunitario de GES.</t>
   </si>
   <si>
-    <t>El equipo actual de ENVIRONS está formado por la Dra. Sheryl Magzamen, la Dra. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocio Monroy-Tello y Nona Nyart. Marshall Thomas (ex miembro de ENVIRONS) también contribuyó al desarrollo de los conjuntos de datos utilizados en esta herramienta.</t>
-  </si>
-  <si>
     <t>El estudio de salud GES también cuenta con el apoyo de un comité directivo. Entre los miembros actuales del comité directivo se encuentran: la Dra. Melinda Laituri, Aracely Navarro, Lubna Ahmed y la Dra. Rose Ediger.</t>
   </si>
   <si>
@@ -1081,9 +1075,6 @@
     <t>"When you submit a geocode request, the web server automatically collects certain technical information from your computer and about your connection. The only information that is stored is IP Address (for batch and single address submissions) and submitted address (only for single address submissions). The information is stored on a server, which is internal to the Census network.  This server is only accessible by Census Bureau staff, who are bound by the confidentiality requirements set forth in Title 13 of the United States Code and requires multiple levels of approval. This information is only used to monitor and track the performance of the Geocoder."</t>
   </si>
   <si>
-    <t>To find the neighborhood associated with an address, we use a geocoder run by the US Census Bureau. The following information from the US Census Bureau descibes how they use the address information you provide:</t>
-  </si>
-  <si>
     <t>Para encontrar el vecindario asociado con una dirección, utilizamos un geocodificador administrado por la Oficina del Censo de los EE. UU. La siguiente información de la Oficina del Censo de los EE. UU. describe cómo utilizan la información de la dirección que usted proporciona:</t>
   </si>
   <si>
@@ -1157,6 +1148,15 @@
   </si>
   <si>
     <t>&lt;a href='https://groundworkcolorado.org/'&gt;Groundwork Denver&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>To find the neighborhood associated with an address, we use a geocoder run by the US Census Bureau. The following information from the US Census Bureau describes how they use the address information you provide:</t>
+  </si>
+  <si>
+    <t>The current ENVIRONS team includes: Dr. Sheryl Magzamen, Dr. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocio Monroy-Tello, and Nona Nyhart. Marshall Thomas (former ENVIRONS member) also contributed to the development of the data sets used in this tool.</t>
+  </si>
+  <si>
+    <t>El equipo actual de ENVIRONS está formado por la Dra. Sheryl Magzamen, la Dra. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocio Monroy-Tello y Nona Nyhart. Marshall Thomas (ex miembro de ENVIRONS) también contribuyó al desarrollo de los conjuntos de datos utilizados en esta herramienta.</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1600,7 +1600,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
@@ -1608,13 +1608,13 @@
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1633,10 +1633,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1677,10 +1677,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1713,7 +1713,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1721,10 +1721,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1732,10 +1732,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1768,7 +1768,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1779,7 +1779,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1801,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1812,7 +1812,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1823,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1831,10 +1831,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
         <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1856,7 +1856,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1864,10 +1864,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1889,7 +1889,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1900,7 +1900,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1911,7 +1911,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1922,7 +1922,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1933,7 +1933,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1941,10 +1941,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1952,10 +1952,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1977,7 +1977,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1985,10 +1985,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2032,7 +2032,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2043,7 +2043,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2054,7 +2054,7 @@
         <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2065,7 +2065,7 @@
         <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2076,7 +2076,7 @@
         <v>114</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2087,7 +2087,7 @@
         <v>115</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2095,10 +2095,10 @@
         <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2109,7 +2109,7 @@
         <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2120,7 +2120,7 @@
         <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2131,7 +2131,7 @@
         <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2142,7 +2142,7 @@
         <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2164,7 +2164,7 @@
         <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
         <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2197,7 +2197,7 @@
         <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2205,10 +2205,10 @@
         <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,7 @@
         <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2230,7 +2230,7 @@
         <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2252,7 +2252,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="187" x14ac:dyDescent="0.2">
@@ -2263,7 +2263,7 @@
         <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2274,7 +2274,7 @@
         <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2285,7 +2285,7 @@
         <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2293,10 +2293,10 @@
         <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2304,10 +2304,10 @@
         <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2315,10 +2315,10 @@
         <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2326,10 +2326,10 @@
         <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2337,10 +2337,10 @@
         <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2351,7 +2351,7 @@
         <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2359,10 +2359,10 @@
         <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2370,626 +2370,626 @@
         <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>371</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>218</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB09C7-0C20-2B40-B633-602D120144E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083983D5-F678-E747-A900-D12DB4F5D9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="980" windowWidth="37440" windowHeight="18520" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37440" windowHeight="18520" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="386">
   <si>
     <t>text_id</t>
   </si>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t>Resumen relevante para la comunidad</t>
-  </si>
-  <si>
-    <t>Insertar aquí un resumen relevante para la comunidad</t>
   </si>
   <si>
     <t>Opciones de mapa</t>
@@ -1009,9 +1006,6 @@
     <t>Arriba se muestra un mapa interactivo que muestra los nombres de los vecindarios de Denver.</t>
   </si>
   <si>
-    <t>Insert community-relevant summary here</t>
-  </si>
-  <si>
     <t>Each unit in this map represents a census tracts. Census tracts mostly follow other natural or human-made boundaries and include about 3,000 to 6,000 people. GES is now made up of three tracts, one for Globeville, and two for the Elyria and Swansea areas. Census tracts are very useful in this study because they have the most detailed information available from the census and allow for comparison between GES and other parts of Denver.</t>
   </si>
   <si>
@@ -1081,12 +1075,6 @@
     <t>"Cuando envía una solicitud de geocodificación, el servidor web recopila automáticamente cierta información técnica de su computadora y sobre su conexión. La única información que se almacena es la dirección IP (para envíos por lotes y de una sola dirección) y la dirección enviada (solo para envíos de una sola dirección). La información se almacena en un servidor, que es interno a la red del Censo. A este servidor solo puede acceder el personal de la Oficina del Censo, que está sujeto a los requisitos de confidencialidad establecidos en el Título 13 del Código de los Estados Unidos y requiere múltiples niveles de aprobación. Esta información solo se utiliza para monitorear y hacer un seguimiento del rendimiento del geocodificador".</t>
   </si>
   <si>
-    <t>Si no desea ingresar su propia dirección, puede ingresar la dirección de una empresa local u otra ubicación en el vecindario de interés.</t>
-  </si>
-  <si>
-    <t>If you do not wish to enter your own address, you can enter the address of a local business or another location in the neighborhood of interest.</t>
-  </si>
-  <si>
     <t>Dirección:</t>
   </si>
   <si>
@@ -1157,6 +1145,57 @@
   </si>
   <si>
     <t>El equipo actual de ENVIRONS está formado por la Dra. Sheryl Magzamen, la Dra. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocio Monroy-Tello y Nona Nyhart. Marshall Thomas (ex miembro de ENVIRONS) también contribuyó al desarrollo de los conjuntos de datos utilizados en esta herramienta.</t>
+  </si>
+  <si>
+    <t>text_126</t>
+  </si>
+  <si>
+    <t>text_127</t>
+  </si>
+  <si>
+    <t>text_128</t>
+  </si>
+  <si>
+    <t>text_129</t>
+  </si>
+  <si>
+    <t>text_130</t>
+  </si>
+  <si>
+    <t>If you live in a community outside of the GES neighborhoods, our summary and excitement for this particular tool might be hard to understand. We can imagine that in other neighborhoods, a new tool showing data about levels of pollution or short life expectancies, that indicate visually the “numbers” of the problems, may be unnecessary. Stay tuned, however, because other communities have a role to play in this new development. In the GES neighborhoods, we are continuously looking for new ways to communicate our lived experiences more clearly with those who are willing to learn and listen. This new map may be the next step towards that.  </t>
+  </si>
+  <si>
+    <t>This tool helps present data clearly and visually, making it easier to highlight problems. For example, this tool can show the density of marijuana dispensaries compared to food stores and the health impacts of pollution and proximity to I-70. It provides residents with concrete data to advocate for change, communicate concerns to representatives, and take collective action without relying solely on individual experiences. What's particularly interesting about this tool, is that we can compare our data directly to the data of other communities. What are the asthma or cancer rates in your community compared to ours? Take a look yourself. This tool allows you to select from a wide range of data to compare so you can look into what matters most to you and your family.  </t>
+  </si>
+  <si>
+    <t>As a community, we’ve spent countless hours without feeling heard when we describe what it's like to live in communities adjacent to highways and heavy industry. Clear data is essential to having our lived experiences believed by advocates, legislators, and policymakers who, up until now, have not been held accountable for their promises. As a working-class community, having a tool that shows the stark differences between our struggles and those of other Denver communities may help legislators and allies understand that the GES neighborhoods are not being heard.  </t>
+  </si>
+  <si>
+    <t>Finally, this tool is validating. As a working-class community, it is energy-consuming and demoralizing to go through pages and pages of hard-to-understand numbers and data and then extremely time-consuming to call city hotlines to report every problem- we’d be on the phone as a full-time job.  When we have called, we feel that corrections are minimal and any response at all is days delayed. This tool is quick, customizable, and easier to understand than elaborate spreadsheets. We can describe the odors we smell, or tell stories of how many friends we have lost due to our proximity to deep polluters, but it isn't until we can see our stories that we are able to feel that our struggles are real and more easily communicated.  </t>
+  </si>
+  <si>
+    <t>- Your GES Health Study Community Council</t>
+  </si>
+  <si>
+    <t>The use of the "Find a Neighborhood" tool is optional. If you do not wish to enter your own address, you can enter the address of a local business or another location in the neighborhood of interest.</t>
+  </si>
+  <si>
+    <t>El uso de la herramienta "Buscar un barrio" es opcional. Si no desea ingresar su propia dirección, puede ingresar la dirección de un negocio local u otra ubicación en el barrio de interés.</t>
+  </si>
+  <si>
+    <t>Si vives en una comunidad fuera de los vecindarios de GES, puede que no entiendas nuestro resumen y entusiasmo por esta herramienta en particular. Podemos imaginar que en otros vecindarios, una nueva herramienta que muestre datos sobre los niveles de contaminación o las cortas expectativas de vida, que indiquen visualmente los “números” de los problemas, puede resultar innecesaria. Sin embargo, permanece atento, porque otras comunidades tienen un papel que desempeñar en este nuevo desarrollo. En los vecindarios de GES, buscamos continuamente nuevas formas de comunicar nuestras experiencias vividas de forma más clara a quienes están dispuestos a aprender y escuchar. Este nuevo mapa puede ser el siguiente paso en esa dirección.</t>
+  </si>
+  <si>
+    <t>Esta herramienta ayuda a presentar los datos de forma clara y visual, lo que facilita la identificación de los problemas. Por ejemplo, esta herramienta puede mostrar la densidad de dispensarios de marihuana en comparación con las tiendas de alimentos y los impactos en la salud de la contaminación y la proximidad a la I-70. Proporciona a los residentes datos concretos para abogar por el cambio, comunicar inquietudes a los representantes y tomar medidas colectivas sin depender únicamente de las experiencias individuales. Lo que resulta particularmente interesante de esta herramienta es que podemos comparar nuestros datos directamente con los datos de otras comunidades. ¿Cuáles son las tasas de asma o cáncer en su comunidad en comparación con las nuestras? Eche un vistazo usted mismo. Esta herramienta le permite seleccionar entre una amplia gama de datos para comparar, de modo que pueda analizar lo que más le importa a usted y a su familia.</t>
+  </si>
+  <si>
+    <t>Como comunidad, hemos pasado incontables horas sin sentirnos escuchados cuando describimos cómo es vivir en comunidades adyacentes a autopistas e industria pesada. Es esencial contar con datos claros para que los defensores, legisladores y legisladores que, hasta ahora, no han tenido que rendir cuentas de sus promesas, crean en nuestras experiencias vividas. Como comunidad de clase trabajadora, contar con una herramienta que muestre las marcadas diferencias entre nuestras luchas y las de otras comunidades de Denver puede ayudar a los legisladores y aliados a comprender que los vecindarios de GES no están siendo escuchados.</t>
+  </si>
+  <si>
+    <t>Finalmente, esta herramienta es validadora. Como comunidad de clase trabajadora, consume energía y es desmoralizante revisar páginas y páginas de números y datos difíciles de entender y luego consume muchísimo tiempo llamar a las líneas directas de la ciudad para informar cada problema; estaríamos en el teléfono como un trabajo de tiempo completo. Cuando hemos llamado, sentimos que las correcciones son mínimas y cualquier respuesta se demora días. Esta herramienta es rápida, personalizable y más fácil de entender que las elaboradas hojas de cálculo. Podemos describir los olores que olemos o contar historias de cuántos amigos hemos perdido debido a nuestra proximidad a contaminadores profundos, pero no es hasta que podemos ver nuestras historias que podemos sentir que nuestras luchas son reales y más fáciles de comunicar.</t>
+  </si>
+  <si>
+    <t>- Su Consejo Comunitario de Estudios de Salud GES</t>
   </si>
 </sst>
 </file>
@@ -1195,18 +1234,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1227,13 +1260,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1570,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,13 +1641,13 @@
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1677,10 +1710,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1713,7 +1746,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1721,10 +1754,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1732,10 +1765,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1768,7 +1801,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1790,7 +1823,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1812,7 +1845,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1834,7 +1867,7 @@
         <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1844,7 +1877,7 @@
       <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1859,15 +1892,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1878,7 +1905,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1889,7 +1916,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1900,7 +1927,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1911,7 +1938,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1922,7 +1949,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1933,7 +1960,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1941,10 +1968,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1952,10 +1979,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1966,7 +1993,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1977,7 +2004,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1985,10 +2012,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1999,7 +2026,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2010,7 +2037,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2021,7 +2048,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2032,7 +2059,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2043,7 +2070,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2054,7 +2081,7 @@
         <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2065,7 +2092,7 @@
         <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2076,7 +2103,7 @@
         <v>114</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2087,7 +2114,7 @@
         <v>115</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2098,7 +2125,7 @@
         <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2109,7 +2136,7 @@
         <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2120,7 +2147,7 @@
         <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2131,7 +2158,7 @@
         <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2142,7 +2169,7 @@
         <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2153,7 +2180,7 @@
         <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2164,7 +2191,7 @@
         <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2175,7 +2202,7 @@
         <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2186,7 +2213,7 @@
         <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2197,7 +2224,7 @@
         <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2205,10 +2232,10 @@
         <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2219,7 +2246,7 @@
         <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2230,7 +2257,7 @@
         <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2241,7 +2268,7 @@
         <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2252,7 +2279,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="187" x14ac:dyDescent="0.2">
@@ -2263,7 +2290,7 @@
         <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2274,7 +2301,7 @@
         <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2285,7 +2312,7 @@
         <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2293,10 +2320,10 @@
         <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2304,10 +2331,10 @@
         <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2315,10 +2342,10 @@
         <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2326,10 +2353,10 @@
         <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2337,10 +2364,10 @@
         <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2351,7 +2378,7 @@
         <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2359,10 +2386,10 @@
         <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2370,10 +2397,10 @@
         <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2384,7 +2411,7 @@
         <v>145</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2395,7 +2422,7 @@
         <v>146</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2403,10 +2430,10 @@
         <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2417,7 +2444,7 @@
         <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2428,7 +2455,7 @@
         <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2436,10 +2463,10 @@
         <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2543,453 +2570,508 @@
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>369</v>
+      <c r="B129" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083983D5-F678-E747-A900-D12DB4F5D9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F4E8BA-8BF3-A446-B048-C53C68829882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37440" windowHeight="18520" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,18 +164,9 @@
     <t>text_39</t>
   </si>
   <si>
-    <t>GES Health Study Interactive Maps</t>
-  </si>
-  <si>
-    <t>Welcome to the GES Health Study Interactive Maps app! We are excited to share this important tool with you. The Interactive Maps app was developed to help community members learn more about the environmental conditions that currently and historically exist in the Globeville, Elyria, and Swansea neighborhoods of Denver.</t>
-  </si>
-  <si>
     <t>Globeville, Elyria, and Swansea (GES) are neighborhoods in the North Denver area bordering Commerce City. Officially designated as Globeville and Elyria-Swansea by the city of Denver, these communities are some of the oldest in Denver. Today, the neighborhoods are home to a vibrant Hispanic culture, which intertwines with the heritage of the European immigrants who originally lived in the area to create a community unlike anywhere else in Denver. The more than 11,000 residents of GES contend with poor environmental quality and encroachment by a growing city while fighting to maintain the community and culture they call home.</t>
   </si>
   <si>
-    <t>We invite you to continue reading to learn more about the GES Health Study Interactive Maps app.</t>
-  </si>
-  <si>
     <t>From the Community Council</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t>Community Maps</t>
   </si>
   <si>
-    <t>Mapas interactivos del estudio de salud de GES</t>
-  </si>
-  <si>
     <t>text_switch</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>Welcome!</t>
   </si>
   <si>
-    <t>¡Bienvenido a la aplicación de mapas interactivos del estudio de salud de GES! Nos complace compartir esta importante herramienta con usted. La aplicación de mapas interactivos se desarrolló para ayudar a los miembros de la comunidad a aprender más sobre las condiciones ambientales que existen actualmente e históricamente en los vecindarios de Globeville, Elyria y Swansea de Denver.</t>
-  </si>
-  <si>
     <t>Globeville, Elyria y Swansea (GES) son vecindarios en el área del norte de Denver que limitan con Commerce City. Designadas oficialmente como Globeville y Elyria-Swansea por la ciudad de Denver, estas comunidades son algunas de las más antiguas de Denver. Hoy, los vecindarios albergan una vibrante cultura hispana, que se entrelaza con la herencia de los inmigrantes europeos que originalmente vivían en el área para crear una comunidad diferente a cualquier otro lugar de Denver. Los más de 11.000 residentes de GES se enfrentan a una mala calidad ambiental y a la invasión de una ciudad en crecimiento mientras luchan por mantener la comunidad y la cultura que consideran su hogar.</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
     <t>Mapas de la comunidad</t>
   </si>
   <si>
-    <t>Read this site in English: &lt;a href='https://smartenies.shinyapps.io/ges_health_study_app_english'&gt; GES Health Study Interactive Maps&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>On the &lt;b&gt;Community Maps&lt;/b&gt; tab, you'll be able to explore the maps highlighting locations in Globeville, Elyria, and Swansea identified by GES community council members and neighborhood residents as locations of community pride and community concern. Data presented in these maps were collected during a series of activities and meetings conducted in 2022 and 2023.</t>
   </si>
   <si>
@@ -380,15 +362,9 @@
     <t>In 2022 and 2023, residents of Globeville, Elyria, and Swansea (GES) shared locations that help describe what it is like to live in GES. The map below represents the points residents marked in response to questions about areas of community pride, gathering, and concern, as well as where they go to buy groceries and access health care.</t>
   </si>
   <si>
-    <t>More information about this map and our findings can be found on the &lt;a href='https://www.geshealthstudy.org/maps/community-mapping-locations'&gt; GES Health Study website&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Community Mapping Results</t>
   </si>
   <si>
-    <t>In addition to our community mapping exercise, the GES health study has generated a number of maps documenting environmental and health conditions in the GES neighborhoods. We have included these maps here for you to explore.</t>
-  </si>
-  <si>
     <t>More information about the about health and the environment in the GES neighborhoods can be found in our 2023 Health Impact Assessment: &lt;a href='https://www.geshealthstudy.org/products#h.qz2fxzwvkzcz'&gt; The ABC's of GES: The State of Health and Environment&lt;/a&gt;, which is available in both English and Spanish.</t>
   </si>
   <si>
@@ -546,9 +522,6 @@
   </si>
   <si>
     <t>Fuente de datos:</t>
-  </si>
-  <si>
-    <t>Lea este sitio en español: &lt;a href='https://smartenies.shinyapps.io/ges_health_study_app_espanol'&gt; Mapas interactivos del estudio de salud de GES&lt;/a&gt;</t>
   </si>
   <si>
     <t>Start Here/Empieza aquí</t>
@@ -634,9 +607,6 @@
     <t>Fuente: Datos primarios solicitados al Consejo Comunitario y a miembros de la comunidad de GES. Actualizado el 15/02/23.</t>
   </si>
   <si>
-    <t>Además de nuestro ejercicio de mapeo comunitario, el estudio de salud de GES ha generado una serie de mapas que documentan las condiciones ambientales y de salud en los vecindarios de GES. Hemos incluido estos mapas aquí para que los explore.</t>
-  </si>
-  <si>
     <t>Puede encontrar más información sobre la salud y el medio ambiente en los vecindarios de GES en nuestra Evaluación de Impacto en la Salud de 2023: &lt;a href='https://www.geshealthstudy.org/products#h.qz2fxzwvkzcz'&gt;El ABC de GES: El estado de la salud y el medio ambiente&lt;/a&gt;, que está disponible en inglés y español.</t>
   </si>
   <si>
@@ -685,15 +655,9 @@
     <t>Recursos para aprender más</t>
   </si>
   <si>
-    <t>Esta herramienta de mapeo dinámico es una colaboración entre ENVIRONS y el Consejo Comunitario del Estudio de Salud de GES. Esta herramienta permite a los usuarios comparar las características de la población y las exposiciones ambientales en los vecindarios de Denver. Se creó teniendo en cuenta las necesidades de datos de la comunidad y se basó en los comentarios de nuestro Consejo Comunitario de GES.</t>
-  </si>
-  <si>
     <t>El estudio de salud GES también cuenta con el apoyo de un comité directivo. Entre los miembros actuales del comité directivo se encuentran: la Dra. Melinda Laituri, Aracely Navarro, Lubna Ahmed y la Dra. Rose Ediger.</t>
   </si>
   <si>
-    <t>Puede encontrar más información sobre el Consejo Comunitario de GES, el equipo ENVRONS y el Comité Directivo del Estudio de Salud de GES en nuestro sitio web: &lt;a href='https://www.geshealthstudy.org/about/who-we-are'&gt;Estudio de Salud Comunitaria de GES&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Map showing locations identified by GES community members as both positive and negative influences on their health and wellbeing.</t>
   </si>
   <si>
@@ -1196,6 +1160,42 @@
   </si>
   <si>
     <t>- Su Consejo Comunitario de Estudios de Salud GES</t>
+  </si>
+  <si>
+    <t>Read this site in English: &lt;a href='https://smartenies.shinyapps.io/ges_health_study_app_english'&gt; GES Community Health Study Interactive Maps&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>GES Community Health Study Interactive Maps</t>
+  </si>
+  <si>
+    <t>Welcome to the GES Community Health Study Interactive Maps app! We are excited to share this important tool with you. The Interactive Maps app was developed to help community members learn more about the environmental conditions that currently and historically exist in the Globeville, Elyria, and Swansea neighborhoods of Denver.</t>
+  </si>
+  <si>
+    <t>We invite you to continue reading to learn more about the GES Community Health Study Interactive Maps app.</t>
+  </si>
+  <si>
+    <t>More information about this map and our findings can be found on the &lt;a href='https://www.geshealthstudy.org/maps/community-mapping-locations'&gt; GES Community Health Study website&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>In addition to our community mapping exercise, the GES Community Health Study has generated a number of maps documenting environmental and health conditions in the GES neighborhoods. We have included these maps here for you to explore.</t>
+  </si>
+  <si>
+    <t>Lea este sitio en español: &lt;a href='https://smartenies.shinyapps.io/ges_health_study_app_espanol'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mapas interactivos del Estudio de salud comunitaria del GES</t>
+  </si>
+  <si>
+    <t>¡Bienvenido a la aplicación de mapas interactivos del Estudio de salud comunitaria del GES! Nos complace compartir esta importante herramienta con usted. La aplicación de mapas interactivos se desarrolló para ayudar a los miembros de la comunidad a aprender más sobre las condiciones ambientales que existen actualmente e históricamente en los vecindarios de Globeville, Elyria y Swansea de Denver.</t>
+  </si>
+  <si>
+    <t>Además de nuestro ejercicio de mapeo comunitario, el Estudio de salud comunitaria del GES ha generado una serie de mapas que documentan las condiciones ambientales y de salud en los vecindarios de GES. Hemos incluido estos mapas aquí para que los explore.</t>
+  </si>
+  <si>
+    <t>Esta herramienta de mapeo dinámico es una colaboración entre ENVIRONS y el Consejo Comunitario del Estudio de salud comunitaria del GES. Esta herramienta permite a los usuarios comparar las características de la población y las exposiciones ambientales en los vecindarios de Denver. Se creó teniendo en cuenta las necesidades de datos de la comunidad y se basó en los comentarios de nuestro Consejo Comunitario de GES.</t>
+  </si>
+  <si>
+    <t>Puede encontrar más información sobre el Consejo Comunitario de GES, el equipo ENVRONS y el Comité Directivo del Estudio de salud comunitaria del GES en nuestro sitio web: &lt;a href='https://www.geshealthstudy.org/about/who-we-are'&gt;Estudio de Salud Comunitaria de GES&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1630,24 +1630,24 @@
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1655,10 +1655,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1666,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1677,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1688,10 +1688,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -1699,10 +1699,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -1710,10 +1710,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1721,10 +1721,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1732,10 +1732,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1743,10 +1743,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1754,10 +1754,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1765,10 +1765,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1776,10 +1776,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1787,10 +1787,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1798,10 +1798,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1809,10 +1809,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1820,10 +1820,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1831,10 +1831,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1842,10 +1842,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1853,10 +1853,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1864,10 +1864,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1875,10 +1875,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1886,10 +1886,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1902,10 +1902,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1913,10 +1913,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1924,10 +1924,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1935,10 +1935,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1946,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1957,10 +1957,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1968,10 +1968,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1979,10 +1979,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1990,10 +1990,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2001,10 +2001,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2012,10 +2012,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2023,10 +2023,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2034,10 +2034,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2045,10 +2045,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2056,10 +2056,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2067,1011 +2067,1011 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>215</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>217</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F4E8BA-8BF3-A446-B048-C53C68829882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271962A7-64A8-B944-AA4D-4D98F3015327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="-36380" yWindow="1040" windowWidth="33840" windowHeight="19280" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="428">
   <si>
     <t>text_id</t>
   </si>
@@ -1196,6 +1196,132 @@
   </si>
   <si>
     <t>Puede encontrar más información sobre el Consejo Comunitario de GES, el equipo ENVRONS y el Comité Directivo del Estudio de salud comunitaria del GES en nuestro sitio web: &lt;a href='https://www.geshealthstudy.org/about/who-we-are'&gt;Estudio de Salud Comunitaria de GES&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>text_131</t>
+  </si>
+  <si>
+    <t>text_132</t>
+  </si>
+  <si>
+    <t>text_133</t>
+  </si>
+  <si>
+    <t>text_134</t>
+  </si>
+  <si>
+    <t>text_135</t>
+  </si>
+  <si>
+    <t>text_136</t>
+  </si>
+  <si>
+    <t>text_137</t>
+  </si>
+  <si>
+    <t>text_138</t>
+  </si>
+  <si>
+    <t>text_139</t>
+  </si>
+  <si>
+    <t>text_140</t>
+  </si>
+  <si>
+    <t>text_141</t>
+  </si>
+  <si>
+    <t>text_142</t>
+  </si>
+  <si>
+    <t>text_143</t>
+  </si>
+  <si>
+    <t>text_144</t>
+  </si>
+  <si>
+    <t>text_145</t>
+  </si>
+  <si>
+    <t>text_146</t>
+  </si>
+  <si>
+    <t>text_147</t>
+  </si>
+  <si>
+    <t>text_148</t>
+  </si>
+  <si>
+    <t>text_149</t>
+  </si>
+  <si>
+    <t>text_150</t>
+  </si>
+  <si>
+    <t>text_151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Variable: &lt;/strong&gt; A data item that can change or take on more than one value </t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Distribution: &lt;/strong&gt; The range of values a data item can take on</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Geocode: &lt;/strong&gt; A technique that identifies the location of an address on a map using geographical coordinates (longitude and latitude) so that it can be shown on a map.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;SNAP: &lt;/strong&gt; Supplemental Nutrition Assistance Program (also known as food stamps)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;ENVIRONS: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los RiesgOs y Nuestra Salud (ENVIRONS) research team is based out of Colorado State University in Fort Collins, CO and is responsible for conducting the GES Community Health Study. </t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;PM2.5: &lt;/strong&gt; Particulate matter that is smaller than 2.5 micrometers in diamater; PM contains microscopic solids or liquid droplets that can be inhaled and cause serious health problems. Some particles less than 2.5 micrometers in diameter can get deep into your lungs and some may even get into your bloodstream.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;PM10: &lt;/strong&gt; Particulate matter that is smaller than 10 micrometers in diamater; PM contains microscopic solids or liquid droplets that can be inhaled and cause serious health problems.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;NO2: &lt;/strong&gt; Nitrogen dioxide; a type of air pollutant that comes from combustion sources like car engines and industrial facilities.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;O3: &lt;/strong&gt; Ozone; a type of air pollutant that forms when nitrogen dioxide and volatile organic compounds interact with each other in the presence of sunlight</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;SO2: &lt;/strong&gt; Sulfur dioxide; a type of air pollutant that comes primarily from coal and diesel fuel combustion</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;CO: &lt;/strong&gt; Carbon monoxide; a type of air pollutant that comes from combustion sources like car engines and industrial facilities.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Neighborhoods: &lt;/strong&gt; The City and County of Denver recognizes 78 official neighborhoods, including Denver International Airport (DIA). These are often made up of a collection of census tracts. For example, GES includes three census tracts.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Histogram: &lt;/strong&gt; A type of chart that shows the distribution of a variable. The histograms in the app show the range of values for a variable on the bottom. These ranges are divided into 30 bins. The height of each bar represents the number of neighborhoods in the bin.</t>
+  </si>
+  <si>
+    <t>Key Definitions and Acronyms</t>
+  </si>
+  <si>
+    <t>On the &lt;b&gt;Key Definitions&lt;/b&gt; tab, you'll find explanations for many of the terms used in this interactive map application.</t>
+  </si>
+  <si>
+    <t>Definitions for terms and acronyms found in the Interactive Maps App:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;GES: &lt;/strong&gt; Globeville, Elyria, and Swansea </t>
+  </si>
+  <si>
+    <t>This map include several layers that represent different variables. Click on the layer icon in the top right corner of the map to select a variable of interest.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;CHD: &lt;/strong&gt; Coronary Heart Disease</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;COPD: &lt;/strong&gt; Chronic Obstructive Pulmonary Disease</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Chart: &lt;/strong&gt; A visual representation of data</t>
   </si>
 </sst>
 </file>
@@ -1603,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3074,7 +3200,178 @@
         <v>373</v>
       </c>
     </row>
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B137:B153">
+    <sortCondition ref="B137:B153"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheenamartenies/Library/CloudStorage/Box-Box/Research/Projects/ges_health_study_app/ges_health_study_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu.sharepoint.com/sites/MarteniesLab2/Shared Documents/HELE Lab/projects/ges_health_study/data_analysis/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271962A7-64A8-B944-AA4D-4D98F3015327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{271962A7-64A8-B944-AA4D-4D98F3015327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19C3E113-E7DC-EC40-9760-0579A99356C7}"/>
   <bookViews>
     <workbookView xWindow="-36380" yWindow="1040" windowWidth="33840" windowHeight="19280" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="452">
   <si>
     <t>text_id</t>
   </si>
@@ -182,27 +182,12 @@
     <t>text_switch</t>
   </si>
   <si>
-    <t>¡Bienvenidos!</t>
-  </si>
-  <si>
     <t>Welcome!</t>
   </si>
   <si>
-    <t>Globeville, Elyria y Swansea (GES) son vecindarios en el área del norte de Denver que limitan con Commerce City. Designadas oficialmente como Globeville y Elyria-Swansea por la ciudad de Denver, estas comunidades son algunas de las más antiguas de Denver. Hoy, los vecindarios albergan una vibrante cultura hispana, que se entrelaza con la herencia de los inmigrantes europeos que originalmente vivían en el área para crear una comunidad diferente a cualquier otro lugar de Denver. Los más de 11.000 residentes de GES se enfrentan a una mala calidad ambiental y a la invasión de una ciudad en crecimiento mientras luchan por mantener la comunidad y la cultura que consideran su hogar.</t>
-  </si>
-  <si>
-    <t>Te invitamos a continuar leyendo para conocer más sobre la aplicación Mapas interactivos del Estudio de Salud GES.</t>
-  </si>
-  <si>
     <t>Desde el Consejo Comunitario</t>
   </si>
   <si>
-    <t>También tendrás la opción de descargar los datos utilizados para crear el mapa a tu computadora.</t>
-  </si>
-  <si>
-    <t>Mapas de la comunidad</t>
-  </si>
-  <si>
     <t>On the &lt;b&gt;Community Maps&lt;/b&gt; tab, you'll be able to explore the maps highlighting locations in Globeville, Elyria, and Swansea identified by GES community council members and neighborhood residents as locations of community pride and community concern. Data presented in these maps were collected during a series of activities and meetings conducted in 2022 and 2023.</t>
   </si>
   <si>
@@ -470,9 +455,6 @@
     <t>Comparison of</t>
   </si>
   <si>
-    <t>Comparación del</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -491,9 +473,6 @@
     <t>Globeville - Elyria Swansea</t>
   </si>
   <si>
-    <t>Todos los barrios</t>
-  </si>
-  <si>
     <t>Logo de ENVIRONS</t>
   </si>
   <si>
@@ -515,30 +494,15 @@
     <t>at the neighborhood level</t>
   </si>
   <si>
-    <t>a nivel de barrio</t>
-  </si>
-  <si>
     <t>Un mapa que muestra</t>
   </si>
   <si>
-    <t>Fuente de datos:</t>
-  </si>
-  <si>
     <t>Start Here/Empieza aquí</t>
   </si>
   <si>
-    <t>Empieza aquí/Start Here</t>
-  </si>
-  <si>
     <t>Otros mapas de salud y medio ambiente</t>
   </si>
   <si>
-    <t>Más información</t>
-  </si>
-  <si>
-    <t>Sobre nosotros</t>
-  </si>
-  <si>
     <t>On the &lt;b&gt;About Us&lt;/b&gt; tab, you'll be able to learn more about the teams that put together this interactive tool.</t>
   </si>
   <si>
@@ -551,131 +515,30 @@
     <t>Opciones de mapa</t>
   </si>
   <si>
-    <t>Elige tus variables:</t>
-  </si>
-  <si>
-    <t>Variable poblacional</t>
-  </si>
-  <si>
     <t>Variable ambiental</t>
   </si>
   <si>
-    <t>Exportar los datos:</t>
-  </si>
-  <si>
     <t>Guardar un archivo CSV</t>
   </si>
   <si>
-    <t>A continuación aparecerán mapas de vecindarios que muestran estas dos variables para cada uno de los vecindarios de Denver.</t>
-  </si>
-  <si>
     <t>Debajo de estos mapas hay dos gráficos (Distribuciones de variables) que muestran el rango de valores medidos para cada una de las variables seleccionadas.</t>
   </si>
   <si>
-    <t>La última sección de esta página (Comparación de vecindarios) le permitirá comparar los valores de cada una de las variables en los vecindarios que elija. Utilice los menús desplegables del lado izquierdo para elegir los dos vecindarios que desea comparar.</t>
-  </si>
-  <si>
-    <t>Mapas de barrios</t>
-  </si>
-  <si>
-    <t>Distribuciones variables</t>
-  </si>
-  <si>
-    <t>Comparación de barrios</t>
-  </si>
-  <si>
-    <t>Comparar dos barrios</t>
-  </si>
-  <si>
-    <t>Barrio 1</t>
-  </si>
-  <si>
-    <t>Barrio 2</t>
-  </si>
-  <si>
-    <t>En 2022 y 2023, los residentes de Globeville, Elyria y Swansea (GES) compartieron ubicaciones que ayudan a describir cómo es vivir en GES. El mapa a continuación representa los puntos que los residentes marcaron en respuesta a preguntas sobre áreas de orgullo, reunión y preocupación de la comunidad, así como también dónde van a comprar alimentos y acceder a atención médica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-173 / 5,000
-Puede encontrar más información sobre este mapa y nuestros hallazgos en el &lt;a href='https://www.geshealthstudy.org/maps/community-mapping-locations'&gt;sitio web del Estudio de Salud GES&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Resultados del mapeo comunitario</t>
   </si>
   <si>
-    <t>Fuente: Datos primarios solicitados al Consejo Comunitario y a miembros de la comunidad de GES. Actualizado el 15/02/23.</t>
-  </si>
-  <si>
-    <t>Puede encontrar más información sobre la salud y el medio ambiente en los vecindarios de GES en nuestra Evaluación de Impacto en la Salud de 2023: &lt;a href='https://www.geshealthstudy.org/products#h.qz2fxzwvkzcz'&gt;El ABC de GES: El estado de la salud y el medio ambiente&lt;/a&gt;, que está disponible en inglés y español.</t>
-  </si>
-  <si>
     <t>Salud</t>
   </si>
   <si>
-    <t>Acerca de los datos de salud</t>
-  </si>
-  <si>
-    <t>El mapa de esta página muestra la tasa de determinados problemas de salud en Denver por distrito censal. Se seleccionaron estas enfermedades por su relevancia e interés para el GES y por la disponibilidad de datos.</t>
-  </si>
-  <si>
-    <t>Fuente: Conjunto de datos de áreas censales de Colorado EnviroScreen v1 a través de &lt;a href='https://data-cdphe.opendata.arcgis.com/datasets/CDPHE::colorado-enviroscreen-v1-censustract/about'&gt;Datos abiertos del CDPHE&lt;/a&gt;. Actualizado el 15 de febrero de 2023</t>
-  </si>
-  <si>
-    <t>El barrio en cifras</t>
-  </si>
-  <si>
-    <t>Acerca de los datos del censo</t>
-  </si>
-  <si>
-    <t>Estos datos provienen de la Encuesta sobre la Comunidad Estadounidense (ACS) 2016-2020. La ACS está a cargo de la Oficina del Censo de los EE. UU. y brinda información más detallada que el censo completo que se realiza cada diez años. Esta ACS también intentó tener en cuenta a las personas que no respondieron en el censo de 2020 (por ejemplo, debido a preguntas sobre la ciudadanía).</t>
-  </si>
-  <si>
-    <t>Cada unidad de este mapa representa un distrito censal. Los distritos censales en su mayoría siguen otros límites naturales o creados por el hombre e incluyen entre 3000 y 6000 personas. El GES ahora está compuesto por tres distritos, uno para Globevile y dos para las áreas de Elyria y Swansea. Los distritos censales son muy útiles en este estudio porque contienen la información más detallada disponible del censo y permiten la comparación entre el GES y otras partes de Denver.</t>
-  </si>
-  <si>
-    <t>Fuente: Estimaciones a 5 años de la ACS 2016-2020 a través de la &lt;a href='https://www.census.gov/newsroom/press-kits/2021/acs-5-year.html'&gt;Oficina del Censo de los Estados Unidos&lt;/a&gt;. Actualizado el 15 de febrero de 2023</t>
-  </si>
-  <si>
-    <t>Equidad del árbol</t>
-  </si>
-  <si>
-    <t>Acerca de equidad del árbol y redlining</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Equidad de los árboles:&lt;/b&gt; El puntaje de equidad de los árboles está diseñado para destacar qué vecindarios necesitan más árboles y se determina mediante la combinación de medidas ambientales y sociales. El puntaje se compone de dos partes: la primera compara la cobertura de árboles existente con la meta de cobertura de árboles para el vecindario. La segunda parte del puntaje de equidad de los árboles calcula la prioridad para cada vecindario utilizando la raza, los ingresos, el empleo, la edad, la gravedad de la isla de calor y la salud. Estas partes se combinan para crear un solo número que va de 0 a 100, siendo 100 el más equitativo para la cobertura de árboles.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Redlining:&lt;/b&gt; En la década de 1930, la Home Owner Loan Corporation creó mapas de ciudades de Estados Unidos que mostraban el nivel percibido de riesgo de los préstamos hipotecarios. Los barrios se calificaban con códigos de colores: A (mejor, verde), B (aún deseable, azul), C (en declive, amarillo) o D (peligroso, rojo). A los barrios donde vivían personas de color, inmigrantes y otros grupos minoritarios se les asignaba a menudo la D (peligroso, rojo), mientras que a los barrios ricos de mayoría blanca se les asignaba la A (mejor, verde) o la B (aún deseable, azul). Los bancos utilizaban estas calificaciones para negar a las personas de color y otras poblaciones minoritarias el acceso a préstamos hipotecarios en función del lugar donde vivían, impidiendo así la inversión en estos barrios. Esta práctica se conoce como redlining (debido a que los barrios de color aparecen en rojo en los mapas) y se considera un elemento de racismo estructural. El redlining se declaró ilegal en 1968, pero los efectos de la falta de inversión todavía están presentes en las comunidades de color en la actualidad.</t>
-  </si>
-  <si>
-    <t>Fuente: &lt;a href='https://treeequityscore.org/data/'&gt;American Forests&lt;/a&gt; y &lt;a href='https://dsl.richmond.edu/panorama/redlining/#loc=11/39.71/-105.117&amp;city=denver-co&amp;text=downloads.'&gt;University of Richmond Digital Scholarship Lab&lt;/a&gt;. Actualizado el 15 de febrero de 2023</t>
-  </si>
-  <si>
     <t>Recursos para aprender más</t>
   </si>
   <si>
-    <t>El estudio de salud GES también cuenta con el apoyo de un comité directivo. Entre los miembros actuales del comité directivo se encuentran: la Dra. Melinda Laituri, Aracely Navarro, Lubna Ahmed y la Dra. Rose Ediger.</t>
-  </si>
-  <si>
     <t>Map showing locations identified by GES community members as both positive and negative influences on their health and wellbeing.</t>
   </si>
   <si>
-    <t>Mapa que muestra las ubicaciones identificadas por los miembros de la comunidad de GES como influencias tanto positivas como negativas en su salud y bienestar.</t>
-  </si>
-  <si>
-    <t>Mapa que muestra las tasas de hospitalizaciones por asma, diabetes, cáncer y mala salud mental a nivel de área censal en Denver, CO.</t>
-  </si>
-  <si>
-    <t>Mapa que muestra las características sociales y económicas a nivel de tramo censal en Denver, CO.</t>
-  </si>
-  <si>
     <t>Map showing tree equity and historic redlining at the census tract level in Denver, CO.</t>
   </si>
   <si>
-    <t>Mapa que muestra la equidad de los árboles y la segregación histórica a nivel de área censal en Denver, Colorado.</t>
-  </si>
-  <si>
     <t>text_85</t>
   </si>
   <si>
@@ -685,45 +548,15 @@
     <t>To download the data used to create these charts, click the 'Save a CSV file' button on the left hand side of this page to save a file to the 'Downloads' folder of your computer. To download an image of your maps, click the "Download these maps" button underneath the maps.</t>
   </si>
   <si>
-    <t>Para descargar los datos utilizados para crear estos gráficos, haga clic en el botón "Guardar un archivo CSV" en el lado izquierdo de esta página para guardar un archivo en la carpeta "Descargas" de su computadora. Para descargar una imagen de sus mapas, haga clic en el botón "Descargar estos mapas" debajo de los mapas.</t>
-  </si>
-  <si>
-    <t>Descargar estos mapas</t>
-  </si>
-  <si>
     <t>text_86</t>
   </si>
   <si>
     <t>text_access</t>
   </si>
   <si>
-    <t>For assistance accessing the information on this webpage, please contact ACCESSIBILITY CONTACT INFO HERE.</t>
-  </si>
-  <si>
-    <t>Para obtener ayuda para acceder a la información de esta página web, comuníquese con INFORMACIÓN DE CONTACTO DE ACCESIBILIDAD AQUÍ.</t>
-  </si>
-  <si>
-    <t>En la página &lt;b&gt;Desde el Consejo Comunitario&lt;/b&gt;, encontrará un mensaje importante del Consejo Comunitario de GES sobre esta herramienta interactiva.</t>
-  </si>
-  <si>
-    <t>En la página &lt;b&gt;Mapas de la comunidad&lt;/b&gt;, podrá explorar los mapas que destacan las ubicaciones en Globeville, Elyria y Swansea identificadas por los miembros del consejo comunitario de GES y los residentes del vecindario como lugares de orgullo y preocupación para la comunidad. Los datos presentados en estos mapas se recopilaron durante una serie de actividades y reuniones realizadas en 2022 y 2023.</t>
-  </si>
-  <si>
-    <t>En la página &lt;b&gt;Otros mapas de salud y medio ambiente&lt;/b&gt;, podrá ver mapas que muestran variables ambientales y de salud adicionales que impactan los vecindarios de Globeville, Elyria, Swansea y otros en Denver.</t>
-  </si>
-  <si>
-    <t>En la página &lt;b&gt;Más información&lt;/b&gt;, se le conectará con otros recursos que se centran en la salud y el medio ambiente en GES y más allá.</t>
-  </si>
-  <si>
-    <t>En la página &lt;b&gt;Acerca de nosotros&lt;/b&gt;, podrás obtener más información sobre los equipos que crearon esta herramienta interactiva.</t>
-  </si>
-  <si>
     <t>Interactive Maps: Environment</t>
   </si>
   <si>
-    <t>Mapas interactivos: Medio ambiente</t>
-  </si>
-  <si>
     <t>Neighborhood maps showing these two variables for each of the neighborhoods in Denver will appear below.</t>
   </si>
   <si>
@@ -733,9 +566,6 @@
     <t>Denver Neighborhoods</t>
   </si>
   <si>
-    <t>Barrios de Denver</t>
-  </si>
-  <si>
     <t>text_88</t>
   </si>
   <si>
@@ -787,12 +617,6 @@
     <t>Un mapa que muestra los vecindarios de Denver</t>
   </si>
   <si>
-    <t>Fuente de datos: Denver Open Data</t>
-  </si>
-  <si>
-    <t>Desplácese sobre cada barrio para encontrar su nombre.</t>
-  </si>
-  <si>
     <t>A map highlighting</t>
   </si>
   <si>
@@ -826,12 +650,6 @@
     <t>Resultado de salud</t>
   </si>
   <si>
-    <t>Mapas interactivos: Salud</t>
-  </si>
-  <si>
-    <t>Descargue estos gráficos</t>
-  </si>
-  <si>
     <t>Descargar este gráfico</t>
   </si>
   <si>
@@ -874,39 +692,12 @@
     <t>These bars represent the range  values for each of the variables. The bar on top shows the range of values for the population variable and the bar on the bottom shows the range of values for the health variable. Each bar has lines that show where each of the selected neighborhoods falls in these ranges. The value on the top of each bar is Neighborhood 1 (shown in red) and the value on the bottom of each bar is Neighborhood 2 (shown in blue).</t>
   </si>
   <si>
-    <t>Estos mapas muestran la característica de la población a la izquierda y la variable ambiental a la derecha. Los colores representan los valores de estos datos en cada barrio. Los colores más oscuros representan valores más altos. Puede utilizar el ratón para desplazarse sobre cada uno de los barrios y averiguar el valor de cada variable.</t>
-  </si>
-  <si>
-    <t>Estos histogramas representan la frecuencia de los valores de cada una de las variables. El histograma de la izquierda muestra el rango de valores de la variable de población y el histograma de la derecha muestra el rango de valores de la variable ambiental. Los rangos de cada variable se dividen en 30 compartimentos, representados por el ancho de cada barra. La altura de cada barra representa la cantidad de vecindarios en el compartimento. Cada histograma también incluye un indicador de dónde se ubican los vecindarios del GES en este rango de valores.</t>
-  </si>
-  <si>
-    <t>Estas barras representan los valores de rango para cada una de las variables. La barra superior muestra el rango de valores para la variable de población y la barra inferior muestra el rango de valores para la variable ambiental. Cada barra tiene líneas que muestran dónde se ubica cada uno de los vecindarios seleccionados en estos rangos. El valor en la parte superior de cada barra es el Barrio 1 (mostrado en rojo) y el valor en la parte inferior de cada barra es el Barrio 2 (mostrado en azul).</t>
-  </si>
-  <si>
-    <t>Estos mapas muestran la característica de la población a la izquierda y la variable de salud a la derecha. Los colores representan los valores de estos datos en cada barrio. Los colores más oscuros representan valores más altos. Puede utilizar el ratón para desplazarse sobre cada uno de los barrios y averiguar el valor de cada variable.</t>
-  </si>
-  <si>
-    <t>Estos histogramas representan la frecuencia de los valores de cada una de las variables. El histograma de la izquierda muestra el rango de valores de la variable de población y el histograma de la derecha muestra el rango de valores de la variable de salud. Los rangos de cada variable se dividen en 30 compartimentos, representados por el ancho de cada barra. La altura de cada barra representa la cantidad de vecindarios en el compartimento. Cada histograma también incluye un indicador de dónde se ubican los vecindarios del GES en este rango de valores.</t>
-  </si>
-  <si>
-    <t>Estas barras representan los valores de rango para cada una de las variables. La barra superior muestra el rango de valores para la variable de población y la barra inferior muestra el rango de valores para la variable de salud. Cada barra tiene líneas que muestran dónde se ubica cada uno de los vecindarios seleccionados en estos rangos. El valor en la parte superior de cada barra es el Barrio 1 (mostrado en rojo) y el valor en la parte inferior de cada barra es el Barrio 2 (mostrado en azul).</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;How to use this app:&lt;/b&gt; This app includes tools to help users understand better the distribution of environmental exposures and health outcomes across Denver. The purpose of this app is to document trends in the social and environmental factors that impact health in Denver neighborhoods so that community residents can learn more about the conditions that exist where they live.  The data available in this app should not be used to make determinations about specific causes of health or disease for any resident living in Denver</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Cómo utilizar esta aplicación:&lt;/b&gt; Esta aplicación incluye herramientas para ayudar a los usuarios a comprender mejor la distribución de las exposiciones ambientales y los efectos sobre la salud en Denver. El propósito de esta aplicación es documentar las tendencias en los factores sociales y ambientales que afectan la salud en los vecindarios de Denver para que los residentes de la comunidad puedan aprender más sobre las condiciones que existen en el lugar donde viven. Los datos disponibles en esta aplicación no deben usarse para determinar causas específicas de salud o enfermedad para ningún residente que viva en Denver.</t>
-  </si>
-  <si>
     <t>On the &lt;b&gt;Interactive Maps: Environment&lt;/b&gt; tab, you'll be able to create maps showing a population variable and an environmental variable of concern to the community. These maps will show differences across neighborhoods. Then, you'll be able to compare your chosen variables between two neighborhoods of interest. All of the figures on this tab can be downloaded by the user.</t>
   </si>
   <si>
     <t>On the &lt;b&gt;Interactive Maps: Health&lt;/b&gt; tab, you'll be able to create maps showing a population variable and health outcome variable of concern to the community. These maps will show differences across neighborhoods. Then, you'll be able to compare your chosen variables between two neighborhoods of interest. All of the figures on this tab can be downloaded by the user.</t>
   </si>
   <si>
-    <t>En la página &lt;b&gt;Mapas interactivos: Salud&lt;/b&gt;, podrá crear mapas que muestren una variable de población y una variable de resultado de salud que sean de interés para la comunidad. Estos mapas mostrarán las diferencias entre los vecindarios. Luego, podrá comparar las variables elegidas entre dos vecindarios de interés. El usuario puede descargar todas las figuras de esta página.</t>
-  </si>
-  <si>
     <t>text_109</t>
   </si>
   <si>
@@ -925,9 +716,6 @@
     <t>text_114</t>
   </si>
   <si>
-    <t>En la página &lt;b&gt;Mapas interactivos: Medio ambiente&lt;/b&gt;, podrá crear mapas que muestren una variable de población y una variable ambiental de interés para la comunidad. Estos mapas mostrarán las diferencias entre los vecindarios. Luego, podrá comparar las variables elegidas entre dos vecindarios de interés. El usuario puede descargar todas las cifras de esta página.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A histogram of </t>
   </si>
   <si>
@@ -967,9 +755,6 @@
     <t>Shown above: An interactive map showing the names of Denver neighborhoods.</t>
   </si>
   <si>
-    <t>Arriba se muestra un mapa interactivo que muestra los nombres de los vecindarios de Denver.</t>
-  </si>
-  <si>
     <t>Each unit in this map represents a census tracts. Census tracts mostly follow other natural or human-made boundaries and include about 3,000 to 6,000 people. GES is now made up of three tracts, one for Globeville, and two for the Elyria and Swansea areas. Census tracts are very useful in this study because they have the most detailed information available from the census and allow for comparison between GES and other parts of Denver.</t>
   </si>
   <si>
@@ -1006,12 +791,6 @@
     <t>Format: 213 Anystreet, Denver, CO 80216</t>
   </si>
   <si>
-    <t>Encuentra un vecindario</t>
-  </si>
-  <si>
-    <t>Introduzca una dirección para encontrar su barrio:</t>
-  </si>
-  <si>
     <t>Formato: 213 Anystreet, Denver, CO 80216</t>
   </si>
   <si>
@@ -1033,12 +812,6 @@
     <t>"When you submit a geocode request, the web server automatically collects certain technical information from your computer and about your connection. The only information that is stored is IP Address (for batch and single address submissions) and submitted address (only for single address submissions). The information is stored on a server, which is internal to the Census network.  This server is only accessible by Census Bureau staff, who are bound by the confidentiality requirements set forth in Title 13 of the United States Code and requires multiple levels of approval. This information is only used to monitor and track the performance of the Geocoder."</t>
   </si>
   <si>
-    <t>Para encontrar el vecindario asociado con una dirección, utilizamos un geocodificador administrado por la Oficina del Censo de los EE. UU. La siguiente información de la Oficina del Censo de los EE. UU. describe cómo utilizan la información de la dirección que usted proporciona:</t>
-  </si>
-  <si>
-    <t>"Cuando envía una solicitud de geocodificación, el servidor web recopila automáticamente cierta información técnica de su computadora y sobre su conexión. La única información que se almacena es la dirección IP (para envíos por lotes y de una sola dirección) y la dirección enviada (solo para envíos de una sola dirección). La información se almacena en un servidor, que es interno a la red del Censo. A este servidor solo puede acceder el personal de la Oficina del Censo, que está sujeto a los requisitos de confidencialidad establecidos en el Título 13 del Código de los Estados Unidos y requiere múltiples niveles de aprobación. Esta información solo se utiliza para monitorear y hacer un seguimiento del rendimiento del geocodificador".</t>
-  </si>
-  <si>
     <t>Dirección:</t>
   </si>
   <si>
@@ -1048,30 +821,15 @@
     <t xml:space="preserve">The code and methods used to develop this Shiny app can be found on Github: &lt;a href='https://github.com/smartenies/ges_health_study_app'&gt; GES Health Study App&lt;/a&gt;. </t>
   </si>
   <si>
-    <t>El código y los métodos utilizados para desarrollar esta aplicación Shiny se pueden encontrar en Github: &lt;a href='https://github.com/smartenies/ges_health_study_app'&gt;Aplicación de estudio de salud GES&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Sobre de la herramienta "Buscar un vecindario":</t>
-  </si>
-  <si>
     <t>Current GES Community Council members who contributed to the development of this tool are Nancy Santos (Swansea Resident), Dolores Alfaro (Elyria Resident), Ana Varela (Elyria Resident), and Sandra Ruiz Parrilla (Globeville Resident). Former members of the GES Community Council who contributed to the interpretation of community data featured in this tool include Maria de Santiago and Rebecca Trujillo.</t>
   </si>
   <si>
-    <t>Los miembros actuales del Consejo Comunitario de GES que contribuyeron al desarrollo de esta herramienta son Nancy Santos (residente de Swansea), Dolores Alfaro (residente de Elyria), Ana Varela (residente de Elyria), y Sandra Ruiz Parrilla (residente de Globeville). Los ex miembros del Consejo Comunitario de GES que contribuyeron a la interpretación de los datos comunitarios incluidos en esta herramienta incluyen a Maria de Santiago y Rebecca Trujillo.</t>
-  </si>
-  <si>
     <t>On this page, you can visualize maps of population variables and important environmental variables at the neighborhood level. To get started, choose a population variable and an environmental variable from the menu on the left-hand side of this page (top of the page on mobile) (Map Options).</t>
   </si>
   <si>
     <t>On this page, you can visualize maps of population variables and important health variables at the neighborhood level. To get started, choose a population variable and health outcome variable from the menu on the left-hand side of this page  (top of the page on mobile)  (Map Options).</t>
   </si>
   <si>
-    <t>En esta página, puede visualizar mapas de variables de población y variables de salud importantes a nivel de barrio. Para comenzar, elija una variable de población y una variable de resultado de salud en el menú del lado izquierdo de esta página (parte superior de la página en el móvil) (Opciones de mapa).</t>
-  </si>
-  <si>
-    <t>En esta página, puede visualizar mapas de variables de población y variables ambientales importantes a nivel de barrio. Para comenzar, elija una variable de población y una variable ambiental en el menú del lado izquierdo de esta página (parte superior de la página en el móvil) (Opciones de mapa).</t>
-  </si>
-  <si>
     <t>text_124</t>
   </si>
   <si>
@@ -1081,9 +839,6 @@
     <t>To learn more about efforts to promote health, environment, food, and climate justice in Globeville, Elyria, and Swansea, check out these other great organizations:</t>
   </si>
   <si>
-    <t>Para obtener más información sobre los esfuerzos para promover la salud, el medio ambiente, la alimentación y la justicia climática en Globeville, Elyria y Swansea, consulte estas otras excelentes organizaciones:</t>
-  </si>
-  <si>
     <t>&lt;a href='https://www.ges-coalition.org/'&gt;GES Coalition&lt;/a&gt;</t>
   </si>
   <si>
@@ -1108,9 +863,6 @@
     <t>The current ENVIRONS team includes: Dr. Sheryl Magzamen, Dr. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocio Monroy-Tello, and Nona Nyhart. Marshall Thomas (former ENVIRONS member) also contributed to the development of the data sets used in this tool.</t>
   </si>
   <si>
-    <t>El equipo actual de ENVIRONS está formado por la Dra. Sheryl Magzamen, la Dra. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocio Monroy-Tello y Nona Nyhart. Marshall Thomas (ex miembro de ENVIRONS) también contribuyó al desarrollo de los conjuntos de datos utilizados en esta herramienta.</t>
-  </si>
-  <si>
     <t>text_126</t>
   </si>
   <si>
@@ -1144,27 +896,6 @@
     <t>The use of the "Find a Neighborhood" tool is optional. If you do not wish to enter your own address, you can enter the address of a local business or another location in the neighborhood of interest.</t>
   </si>
   <si>
-    <t>El uso de la herramienta "Buscar un barrio" es opcional. Si no desea ingresar su propia dirección, puede ingresar la dirección de un negocio local u otra ubicación en el barrio de interés.</t>
-  </si>
-  <si>
-    <t>Si vives en una comunidad fuera de los vecindarios de GES, puede que no entiendas nuestro resumen y entusiasmo por esta herramienta en particular. Podemos imaginar que en otros vecindarios, una nueva herramienta que muestre datos sobre los niveles de contaminación o las cortas expectativas de vida, que indiquen visualmente los “números” de los problemas, puede resultar innecesaria. Sin embargo, permanece atento, porque otras comunidades tienen un papel que desempeñar en este nuevo desarrollo. En los vecindarios de GES, buscamos continuamente nuevas formas de comunicar nuestras experiencias vividas de forma más clara a quienes están dispuestos a aprender y escuchar. Este nuevo mapa puede ser el siguiente paso en esa dirección.</t>
-  </si>
-  <si>
-    <t>Esta herramienta ayuda a presentar los datos de forma clara y visual, lo que facilita la identificación de los problemas. Por ejemplo, esta herramienta puede mostrar la densidad de dispensarios de marihuana en comparación con las tiendas de alimentos y los impactos en la salud de la contaminación y la proximidad a la I-70. Proporciona a los residentes datos concretos para abogar por el cambio, comunicar inquietudes a los representantes y tomar medidas colectivas sin depender únicamente de las experiencias individuales. Lo que resulta particularmente interesante de esta herramienta es que podemos comparar nuestros datos directamente con los datos de otras comunidades. ¿Cuáles son las tasas de asma o cáncer en su comunidad en comparación con las nuestras? Eche un vistazo usted mismo. Esta herramienta le permite seleccionar entre una amplia gama de datos para comparar, de modo que pueda analizar lo que más le importa a usted y a su familia.</t>
-  </si>
-  <si>
-    <t>Como comunidad, hemos pasado incontables horas sin sentirnos escuchados cuando describimos cómo es vivir en comunidades adyacentes a autopistas e industria pesada. Es esencial contar con datos claros para que los defensores, legisladores y legisladores que, hasta ahora, no han tenido que rendir cuentas de sus promesas, crean en nuestras experiencias vividas. Como comunidad de clase trabajadora, contar con una herramienta que muestre las marcadas diferencias entre nuestras luchas y las de otras comunidades de Denver puede ayudar a los legisladores y aliados a comprender que los vecindarios de GES no están siendo escuchados.</t>
-  </si>
-  <si>
-    <t>Finalmente, esta herramienta es validadora. Como comunidad de clase trabajadora, consume energía y es desmoralizante revisar páginas y páginas de números y datos difíciles de entender y luego consume muchísimo tiempo llamar a las líneas directas de la ciudad para informar cada problema; estaríamos en el teléfono como un trabajo de tiempo completo. Cuando hemos llamado, sentimos que las correcciones son mínimas y cualquier respuesta se demora días. Esta herramienta es rápida, personalizable y más fácil de entender que las elaboradas hojas de cálculo. Podemos describir los olores que olemos o contar historias de cuántos amigos hemos perdido debido a nuestra proximidad a contaminadores profundos, pero no es hasta que podemos ver nuestras historias que podemos sentir que nuestras luchas son reales y más fáciles de comunicar.</t>
-  </si>
-  <si>
-    <t>- Su Consejo Comunitario de Estudios de Salud GES</t>
-  </si>
-  <si>
-    <t>Read this site in English: &lt;a href='https://smartenies.shinyapps.io/ges_health_study_app_english'&gt; GES Community Health Study Interactive Maps&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>GES Community Health Study Interactive Maps</t>
   </si>
   <si>
@@ -1183,21 +914,6 @@
     <t>Lea este sitio en español: &lt;a href='https://smartenies.shinyapps.io/ges_health_study_app_espanol'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mapas interactivos del Estudio de salud comunitaria del GES</t>
-  </si>
-  <si>
-    <t>¡Bienvenido a la aplicación de mapas interactivos del Estudio de salud comunitaria del GES! Nos complace compartir esta importante herramienta con usted. La aplicación de mapas interactivos se desarrolló para ayudar a los miembros de la comunidad a aprender más sobre las condiciones ambientales que existen actualmente e históricamente en los vecindarios de Globeville, Elyria y Swansea de Denver.</t>
-  </si>
-  <si>
-    <t>Además de nuestro ejercicio de mapeo comunitario, el Estudio de salud comunitaria del GES ha generado una serie de mapas que documentan las condiciones ambientales y de salud en los vecindarios de GES. Hemos incluido estos mapas aquí para que los explore.</t>
-  </si>
-  <si>
-    <t>Esta herramienta de mapeo dinámico es una colaboración entre ENVIRONS y el Consejo Comunitario del Estudio de salud comunitaria del GES. Esta herramienta permite a los usuarios comparar las características de la población y las exposiciones ambientales en los vecindarios de Denver. Se creó teniendo en cuenta las necesidades de datos de la comunidad y se basó en los comentarios de nuestro Consejo Comunitario de GES.</t>
-  </si>
-  <si>
-    <t>Puede encontrar más información sobre el Consejo Comunitario de GES, el equipo ENVRONS y el Comité Directivo del Estudio de salud comunitaria del GES en nuestro sitio web: &lt;a href='https://www.geshealthstudy.org/about/who-we-are'&gt;Estudio de Salud Comunitaria de GES&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>text_131</t>
   </si>
   <si>
@@ -1322,6 +1038,360 @@
   </si>
   <si>
     <t>&lt;strong&gt;Chart: &lt;/strong&gt; A visual representation of data</t>
+  </si>
+  <si>
+    <t>Mapas interactivos del Estudio de Salud Comunitaria GES</t>
+  </si>
+  <si>
+    <t>Empieza aquí</t>
+  </si>
+  <si>
+    <t>¡Bienvenido!</t>
+  </si>
+  <si>
+    <t>¡Bienvenido a la aplicación de Mapas Interactivos del Estudio de Salud Comunitaria GES! Nos entusiasma compartir esta herramienta tan importante con usted. La aplicación de Mapas Interactivos fue desarrollada para ayudar a los miembros de la comunidad a aprender más sobre las condiciones ambientales que actualmente y históricamente existen en los vecindarios de Globeville, Elyria y Swansea en Denver.</t>
+  </si>
+  <si>
+    <t>Globeville, Elyria y Swansea (GES) son vecindarios en el área norte de Denver que limitan con la ciudad de Commerce City. Oficialmente designados como Globeville y Elyria-Swansea por la ciudad de Denver, estas comunidades son algunas de las más antiguas de Denver. Hoy en día, los vecindarios son hogar de una vibrante cultura hispana, que se entrelaza con la herencia de los inmigrantes europeos que originalmente vivieron en el área, creando una comunidad única en Denver. Los más de 11,000 residentes de GES enfrentan una mala calidad ambiental y la invasión de una ciudad en crecimiento mientras luchan por mantener la comunidad y la cultura que llaman hogar.</t>
+  </si>
+  <si>
+    <t>Le invitamos a continuar leyendo para aprender más sobre la aplicación de Mapas interactivos del Estudio de Salud Comunitaria GES.</t>
+  </si>
+  <si>
+    <t>En la pestaña &lt;b&gt;Desde el Consejo Comunitario&lt;/b&gt;, encontrará un mensaje importante del Consejo Comunitario de GES sobre esta herramienta interactiva.</t>
+  </si>
+  <si>
+    <t>Mapas interactivos: medio ambiente</t>
+  </si>
+  <si>
+    <t>En la pestaña &lt;b&gt;Mapas interactivos: medio ambiente&lt;/b&gt;, podrá crear mapas que muestren una variable de población y una variable ambiental de interés para la comunidad. Estos mapas mostrarán las diferencias entre vecindarios. Luego, podrá comparar sus variables seleccionadas entre dos vecindarios de su interés. Todas las figuras en esta pestaña pueden ser descargadas por el usuario.</t>
+  </si>
+  <si>
+    <t>También tendrá la opción de descargar los datos utilizados para crear el mapa en su computadora.</t>
+  </si>
+  <si>
+    <t>Mapas comunitarios</t>
+  </si>
+  <si>
+    <t>En la pestaña &lt;b&gt;Mapas comunitarios&lt;/b&gt;, podrá explorar los mapas que destacan las ubicaciones en Globeville, Elyria y Swansea identificadas por los miembros del consejo comunitario de GES y los residentes del vecindario como lugares de orgullo comunitario y de preocupación comunitaria. Los datos presentados en estos mapas fueron recopilados durante una serie de actividades y reuniones realizadas en 2022 y 2023.</t>
+  </si>
+  <si>
+    <t>En la pestaña &lt;b&gt;Otros mapas de salud y medio ambiente&lt;/b&gt;, podrá ver mapas que muestran variables adicionales de salud y medio ambiente que impactan los vecindarios de Globeville, Elyria, Swansea y otros en Denver.</t>
+  </si>
+  <si>
+    <t>Aprenda más</t>
+  </si>
+  <si>
+    <t>En la pestaña &lt;b&gt;Aprenda más&lt;/b&gt;, estará vinculado a otros recursos que se enfocan en la salud y el medio ambiente en GES y más allá.</t>
+  </si>
+  <si>
+    <t>Acerca de nosotros</t>
+  </si>
+  <si>
+    <t>En la pestaña &lt;b&gt;Acerca de nosotros&lt;/b&gt;, podrá aprender más sobre los equipos que crearon esta herramienta interactiva.</t>
+  </si>
+  <si>
+    <t>Elija sus variables:</t>
+  </si>
+  <si>
+    <t>Variable de población</t>
+  </si>
+  <si>
+    <t>Exporte los datos:</t>
+  </si>
+  <si>
+    <t>En esta página, puede visualizar mapas de variables poblacionales y variables ambientales importantes a nivel de vecindario. Para comenzar, elija una variable de población y una variable ambiental desde el menú en el lado izquierdo de esta página (en la parte superior de la página en dispositivos móviles) (Opciones de mapa).</t>
+  </si>
+  <si>
+    <t>A continuación, aparecerán mapas de vecindarios que muestran estas dos variables para cada uno de los vecindarios de Denver.</t>
+  </si>
+  <si>
+    <t>La última sección de esta página (Comparación de vecindarios) le permitirá comparar los valores de cada una de las variables entre los vecindarios que elija. Use los menús desplegables en el lado izquierdo para elegir qué dos vecindarios desea comparar.</t>
+  </si>
+  <si>
+    <t>Para descargar los datos utilizados para crear estos gráficos, haga clic en el botón 'Guardar un archivo CSV' en el lado izquierdo de esta página para guardar un archivo en la carpeta 'Descargas' de su computadora. Para descargar una imagen de sus mapas, haga clic en el botón "Descargar estos mapas" debajo de los mapas.</t>
+  </si>
+  <si>
+    <t>Mapas de vecindarios</t>
+  </si>
+  <si>
+    <t>Distribuciones de variables</t>
+  </si>
+  <si>
+    <t>Comparación de vecindarios</t>
+  </si>
+  <si>
+    <t>Compare dos vecindarios</t>
+  </si>
+  <si>
+    <t>Vecindario 1</t>
+  </si>
+  <si>
+    <t>Vecindario 2</t>
+  </si>
+  <si>
+    <t>En 2022 y 2023, los residentes de Globeville, Elyria y Swansea (GES) compartieron ubicaciones que ayudan a describir cómo es vivir en GES. El mapa a continuación representa los puntos que los residentes marcaron en respuesta a preguntas sobre áreas de orgullo comunitario, de reunión y de preocupación, así como los lugares a los que van para comprar comestibles y acceder a atención médica.</t>
+  </si>
+  <si>
+    <t>Más información sobre este mapa y nuestros hallazgos puede encontrarse en el &lt;a href='https://www.geshealthstudy.org/maps/community-mapping-locations'&gt;sitio web del Estudio de Salud Comunitaria GES&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Fuente: datos primarios solicitados al Consejo Comunitario y miembros de la comunidad de GES. Actualizado el 15/02/23.</t>
+  </si>
+  <si>
+    <t>Además de nuestro ejercicio de mapeo comunitario, el Estudio de Salud Comunitaria GES ha generado una serie de mapas que documentan las condiciones ambientales y de salud en los vecindarios de GES. Hemos incluido estos mapas aquí para que los explore.</t>
+  </si>
+  <si>
+    <t>Más información sobre la salud y el medio ambiente en los vecindarios de GES puede encontrarse en nuestra Evaluación de Impacto en la Salud 2023: &lt;a href='https://www.geshealthstudy.org/products#h.qz2fxzwvkzcz'&gt; Los ABC de GES: el estado de la salud y el medio ambiente&lt;/a&gt;, que está disponible tanto en inglés como en español.</t>
+  </si>
+  <si>
+    <t>Sobre los datos de salud</t>
+  </si>
+  <si>
+    <t>El mapa en esta página muestra la tasa de resultados de salud seleccionados en Denver por tramo censal. Estas enfermedades fueron seleccionadas por su relevancia e interés para GES y por la disponibilidad de datos.</t>
+  </si>
+  <si>
+    <t>Fuente: conjunto de datos del Tramo Censal de Colorado EnviroScreen v1 a través de &lt;a href='https://data-cdphe.opendata.arcgis.com/datasets/CDPHE::colorado-enviroscreen-v1-censustract/about'&gt; Datos abiertos de CDPHE&lt;/a&gt;. Actualizado el 15-02-2023.</t>
+  </si>
+  <si>
+    <t>Vecindarios en números</t>
+  </si>
+  <si>
+    <t>Sobre los datos del censo</t>
+  </si>
+  <si>
+    <t>Estos datos provienen de la Encuesta Comunitaria Americana (ACS) 2016-2020. La ACS es administrada por el US Census Bureau y proporciona información más detallada que el censo completo que se realiza cada diez años. Esta ACS también intentó contabilizar a las personas que no respondieron al censo de 2020 (por ejemplo, debido a preguntas sobre ciudadanía).</t>
+  </si>
+  <si>
+    <t>Cada unidad en este mapa representa un tramo censal. Los tramos censales siguen principalmente otros límites naturales o hechos por el hombre e incluyen entre 3,000 y 6,000 personas. GES ahora está compuesto por tres tramos, uno para Globeville y dos para las áreas de Elyria y Swansea. Los tramos censales son muy útiles en este estudio porque tienen la información más detallada disponible del censo y permiten la comparación entre GES y otras partes de Denver.</t>
+  </si>
+  <si>
+    <t>Fuente: estimaciones de 5 años de la ACS 2016-2020 a través del &lt;a href='https://www.census.gov/newsroom/press-kits/2021/acs-5-year.html'&gt; US Census Bureau&lt;/a&gt;. Actualizado el 15-02-2023</t>
+  </si>
+  <si>
+    <t>Equidad en los árboles</t>
+  </si>
+  <si>
+    <t>Sobre la equidad en los árboles y el redlining</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; Equidad en los árboles:&lt;/b&gt; La Puntuación de Equidad en los Árboles está diseñada para resaltar qué vecindarios necesitan más árboles, y se determina mediante una combinación de medidas ambientales y sociales. La puntuación se compone de dos partes: la primera compara la cobertura actual de árboles con la meta de cobertura de árboles para el vecindario. La segunda parte de la Puntuación de Equidad en los Árboles calcula la prioridad para cada vecindario utilizando factores como raza, ingresos, empleo, edad, severidad de la isla de calor y salud. Estas partes se combinan para crear un número único que varía de 0 a 100, siendo 100 el más equitativo en cuanto a cobertura de árboles.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Redlining:&lt;/b&gt; En la década de 1930, la Home Owner Loan Corporation creó mapas de las ciudades de EE.UU. mostrando el nivel percibido de riesgo o préstamos para viviendas. A los vecindarios se les asignaron calificaciones codificadas por colores: A (mejor, verde), B (aún deseable, azul), C (declinante, amarillo) o D (peligroso, rojo). Los vecindarios habitados por personas de color, inmigrantes y otros grupos minoritarios fueron a menudo asignados a D (peligroso, rojo), mientras que los vecindarios acomodados, de mayoría blanca, fueron asignados a A (mejor, verde) o B (aún deseable, azul). Los bancos utilizaron estas calificaciones para negar el acceso a préstamos hipotecarios a las personas de color y otras poblaciones minoritarias basándose en el lugar donde vivían, lo que efectivamente impedía la inversión en estos vecindarios. Esta práctica se conoce como redlining (debido a que los vecindarios de color estaban en rojo en los mapas) y se considera un elemento del racismo estructural. El redlining fue declarado ilegal en 1968, pero los efectos de la falta de inversión aún están presentes en las comunidades de color hoy en día.</t>
+  </si>
+  <si>
+    <t>Fuente: &lt;a href='https://treeequityscore.org/data/'&gt; American Forests&lt;/a&gt; y &lt;a href='https://dsl.richmond.edu/panorama/redlining/#loc=11/39.71/-105.117&amp;city=denver-co&amp;text=downloads.'&gt; University of Richmond Digital Scholarship Lab&lt;/a&gt;. Actualizado el 15-02-2023</t>
+  </si>
+  <si>
+    <t>Para aprender más sobre los esfuerzos para promover la justicia en salud, medio ambiente, alimentos y clima en Globeville, Elyria y Swansea, consulte estas otras excelentes organizaciones:</t>
+  </si>
+  <si>
+    <t>Esta herramienta dinámica de mapeo es una colaboración entre ENVIRONS y el Consejo Comunitario del Estudio de Salud GES. Esta herramienta permite a los usuarios comparar características poblacionales y exposiciones ambientales entre vecindarios de Denver. Fue construida con las necesidades de datos de la comunidad en mente y basada en la retroalimentación de nuestro Consejo Comunitario de GES.</t>
+  </si>
+  <si>
+    <t>Los miembros actuales del Consejo Comunitario de GES que contribuyeron al desarrollo de esta herramienta son Nancy Santos (residente de Swansea), Dolores Alfaro (residente de Elyria), Ana Varela (residente de Elyria) y Sandra Ruiz Parrilla (residente de Globeville). Los ex miembros del Consejo Comunitario de GES que contribuyeron a la interpretación de los datos comunitarios presentados en esta herramienta incluyen a Maria de Santiago y Rebecca Trujillo.</t>
+  </si>
+  <si>
+    <t>El equipo actual de ENVIRONS incluye: Dra. Sheryl Magzamen, Dra. Sheena Martenies, Beth Lunsford, Anna Kenyon, Rocío Monroy-Tello y Nona Nyhart. Marshall Thomas (ex miembro de ENVIRONS) también contribuyó al desarrollo de los conjuntos de datos utilizados en esta herramienta.</t>
+  </si>
+  <si>
+    <t>El Estudio de Salud Comunitaria GES también cuenta con el apoyo de un Comité Directivo. Los miembros actuales del Comité Directivo incluyen: Dra. Melinda Laituri, Aracely Navarro, Lubna Ahmed y Dra. Rose Ediger.</t>
+  </si>
+  <si>
+    <t>Más información sobre el Consejo Comunitario de GES, el equipo ENVIRONS y el Comité Directivo del Estudio de Salud GES puede encontrarse en nuestro sitio web: &lt;a href='https://www.geshealthstudy.org/about/who-we-are'&gt; Estudio de Salud Comunitaria GES&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Mapa que muestra ubicaciones identificadas por miembros de la comunidad de GES como influencias positivas y negativas en su salud y bienestar.</t>
+  </si>
+  <si>
+    <t>Mapa que muestra tasas de hospitalizaciones por asma, diabetes, cáncer y mala salud mental a nivel de tramo censal en Denver, CO.</t>
+  </si>
+  <si>
+    <t>Mapa que muestra características sociales y económicas a nivel de tramo censal en Denver, CO.</t>
+  </si>
+  <si>
+    <t>Mapa que muestra la equidad en los árboles y el redlining histórico a nivel de tramo censal en Denver, CO.</t>
+  </si>
+  <si>
+    <t>Comparación de</t>
+  </si>
+  <si>
+    <t>Todos los vecindarios</t>
+  </si>
+  <si>
+    <t>a nivel de vecindario</t>
+  </si>
+  <si>
+    <t>Fuente:</t>
+  </si>
+  <si>
+    <t>Descargue estos mapas</t>
+  </si>
+  <si>
+    <t>El código y los métodos utilizados para desarrollar esta aplicación Shiny se pueden encontrar en Github: &lt;a href='https://github.com/smartenies/ges_health_study_app'&gt; GES Health Study App&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Vecindarios de Denver</t>
+  </si>
+  <si>
+    <t>Fuente: datos abiertos de Denver</t>
+  </si>
+  <si>
+    <t>En esta página, puede visualizar mapas de variables poblacionales y variables de salud importantes a nivel de vecindario. Para comenzar, elija una variable de población y una variable de resultado de salud del menú en el lado izquierdo de esta página (en la parte superior de la página en dispositivos móviles) (Opciones de mapa).</t>
+  </si>
+  <si>
+    <t>A continuación, aparecerán mapas de vecindarios que muestran estas dos variables para cada uno de los vecindarios en Denver.</t>
+  </si>
+  <si>
+    <t>Desplácese sobre cada vecindario para encontrar su nombre.</t>
+  </si>
+  <si>
+    <t>Mapas interactivos: salud</t>
+  </si>
+  <si>
+    <t>Descargar estos gráficos</t>
+  </si>
+  <si>
+    <t>Estos mapas muestran la característica poblacional a la izquierda y la variable ambiental a la derecha. Los colores representan los valores de estos datos en cada vecindario. Los colores más oscuros representan valores más altos. Puede usar el mouse para pasar por encima de cada uno de los vecindarios y conocer el valor de cada variable.</t>
+  </si>
+  <si>
+    <t>Estos histogramas representan la frecuencia de valores para cada una de las variables. El histograma de la izquierda muestra el rango de valores para la variable poblacional y el histograma de la derecha muestra el rango de valores para la variable ambiental. Los rangos para cada variable están divididos en 30 contenedores, representados por el ancho de cada barra. La altura de cada barra representa el número de vecindarios en el contenedor. Cada histograma también incluye un indicador de dónde se encuentran los vecindarios de GES en este rango de valores.</t>
+  </si>
+  <si>
+    <t>Estas barras representan el rango de valores para cada una de las variables. La barra superior muestra el rango de valores para la variable poblacional y la barra inferior muestra el rango de valores para la variable ambiental. Cada barra tiene líneas que muestran dónde se encuentran los vecindarios seleccionados dentro de estos rangos. El valor en la parte superior de cada barra corresponde al Vecindario 1 (mostrado en rojo) y el valor en la parte inferior de cada barra corresponde al Vecindario 2 (mostrado en azul).</t>
+  </si>
+  <si>
+    <t>Estos mapas muestran la característica poblacional a la izquierda y la variable de salud a la derecha. Los colores representan los valores de estos datos en cada vecindario. Los colores más oscuros representan valores más altos. Puede usar su ratón para pasar por encima de cada uno de los vecindarios y descubrir el valor de cada variable.</t>
+  </si>
+  <si>
+    <t>Estos histogramas representan la frecuencia de valores para cada una de las variables. El histograma de la izquierda muestra el rango de valores para la variable poblacional y el histograma de la derecha muestra el rango de valores para la variable de salud. Los rangos de cada variable se dividen en 30 intervalos, representados por el ancho de cada barra. La altura de cada barra representa la cantidad de vecindarios en ese intervalo. Cada histograma también incluye un indicador de dónde caen los vecindarios de GES dentro de este rango de valores.</t>
+  </si>
+  <si>
+    <t>Estas barras representan el rango de valores para cada una de las variables. La barra superior muestra el rango de valores para la variable poblacional y la barra inferior muestra el rango de valores para la variable de salud. Cada barra tiene líneas que muestran dónde se encuentran los vecindarios seleccionados dentro de estos rangos. El valor en la parte superior de cada barra corresponde al Vecindario 1 (mostrado en rojo) y el valor en la parte inferior de cada barra corresponde al Vecindario 2 (mostrado en azul).</t>
+  </si>
+  <si>
+    <t>En la pestaña &lt;b&gt;Mapas interactivos: salud&lt;/b&gt;, podrá crear mapas que muestren una variable poblacional y una variable de resultado de salud de interés para la comunidad. Estos mapas mostrarán las diferencias entre vecindarios. Luego, podrá comparar las variables que elija entre dos vecindarios de su interés. Todas las figuras de esta pestaña pueden ser descargadas por el usuario.</t>
+  </si>
+  <si>
+    <t>Mostrado arriba: un mapa interactivo que muestra los nombres de los vecindarios de Denver.</t>
+  </si>
+  <si>
+    <t>Buscar un vecindario</t>
+  </si>
+  <si>
+    <t>Ingrese una dirección para encontrar su vecindario:</t>
+  </si>
+  <si>
+    <t>Sobre la herramienta "Buscar un vecindario":</t>
+  </si>
+  <si>
+    <t>Para encontrar el vecindario asociado con una dirección, usamos un geocodificador operado por el US Census Bureau. La siguiente información del US Census Bureau describe cómo usan la información de dirección que proporciona:</t>
+  </si>
+  <si>
+    <t>"Cuando envía una solicitud de geocodificación, el servidor web recopila automáticamente cierta información técnica de su computadora y sobre su conexión. La única información que se almacena es la Dirección IP (para envíos de direcciones individuales y en lote) y la dirección enviada (solo para envíos de direcciones individuales). La información se almacena en un servidor, que es interno a la red del Censo. Este servidor solo es accesible por el personal del Censo, que está sujeto a los requisitos de confidencialidad establecidos en el Título 13 del Código de los Estados Unidos y requiere múltiples niveles de aprobación. Esta información se utiliza únicamente para monitorear y rastrear el rendimiento del Geocodificador".</t>
+  </si>
+  <si>
+    <t>El uso de la herramienta "Buscar un vecindario" es opcional. Si no desea ingresar su propia dirección, puede ingresar la dirección de un negocio local o de otro lugar en el vecindario de su interés.</t>
+  </si>
+  <si>
+    <t>Si vive en una comunidad fuera de los vecindarios de GES, nuestro resumen y entusiasmo por esta herramienta en particular pueden ser difíciles de entender. Podemos imaginar que en otros vecindarios, una nueva herramienta que muestre datos sobre niveles de contaminación o expectativas de vida cortas, que indique visualmente los "números" de los problemas, puede ser innecesaria. Sin embargo, manténgase atento, porque otras comunidades tienen un papel que desempeñar en este nuevo desarrollo. En los vecindarios de GES, buscamos continuamente nuevas formas de comunicar nuestras experiencias vividas de manera más clara con aquellos que están dispuestos a aprender y escuchar. Este nuevo mapa puede ser el siguiente paso hacia eso.</t>
+  </si>
+  <si>
+    <t>Esta herramienta ayuda a presentar los datos de manera clara y visual, facilitando resaltar los problemas. Por ejemplo, esta herramienta puede mostrar la densidad de dispensarios de marihuana en comparación con las tiendas de alimentos y los impactos en la salud de la contaminación y la proximidad a la I-70. Proporciona a los residentes datos concretos para abogar por el cambio, comunicar preocupaciones a los representantes y tomar acción colectiva sin depender únicamente de experiencias individuales. Lo que es particularmente interesante de esta herramienta, es que podemos comparar nuestros datos directamente con los datos de otras comunidades. ¿Cuáles son las tasas de asma o cáncer en su comunidad en comparación con las nuestras? Écheles un vistazo usted mismo. Esta herramienta le permite seleccionar entre una amplia gama de datos para comparar, de modo que pueda investigar lo que más le importa a usted y a su familia.</t>
+  </si>
+  <si>
+    <t>Como comunidad, hemos pasado incontables horas sin sentirnos escuchados cuando describimos lo que es vivir en comunidades adyacentes a autopistas e industrias pesadas. Los datos claros son esenciales para que nuestras experiencias vividas sean creídas por defensores, legisladores y formuladores de políticas que, hasta ahora, no han sido responsables de sus promesas. Como comunidad trabajadora, tener una herramienta que muestre las marcadas diferencias entre nuestras luchas y las de otras comunidades de Denver puede ayudar a los legisladores y aliados a entender que los vecindarios de GES no están siendo escuchados.</t>
+  </si>
+  <si>
+    <t>Finalmente, esta herramienta es validante. Como comunidad trabajadora, es agotador y desmoralizante pasar por páginas y páginas de números y datos difíciles de entender y luego, extremadamente consumidora de tiempo, llamar a las líneas directas de la ciudad para reportar cada problema; estaríamos al teléfono como un trabajo a tiempo completo. Cuando hemos llamado, sentimos que las correcciones son mínimas y cualquier respuesta es retrasada por días. Esta herramienta es rápida, personalizable y más fácil de entender que las hojas de cálculo elaboradas. Podemos describir los olores que olemos, o contar historias sobre cuántos amigos hemos perdido debido a nuestra proximidad a grandes contaminadores, pero no es hasta que podemos ver nuestras historias que podemos sentir que nuestras luchas son reales y más fácilmente comunicadas.</t>
+  </si>
+  <si>
+    <t>- Su Consejo Comunitario del Estudio de Salud GES</t>
+  </si>
+  <si>
+    <t>Definiciones clave y acrónimos</t>
+  </si>
+  <si>
+    <t>En la pestaña &lt;b&gt;Definiciones clave&lt;/b&gt;, encontrará explicaciones para muchos de los términos utilizados en esta aplicación de mapas interactivos.</t>
+  </si>
+  <si>
+    <t>Definiciones de términos y acrónimos encontrados en la aplicación de Mapas interactivos:</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Gráfico: &lt;/strong&gt; una representación visual de los datos</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;CHD: &lt;/strong&gt; enfermedad coronaria del corazón</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;CO: &lt;/strong&gt; monóxido de carbono; un tipo de contaminante del aire que proviene de fuentes de combustión como los motores de los automóviles y las instalaciones industriales.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;COPD: &lt;/strong&gt; enfermedad pulmonar obstructiva crónica</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Distribución: &lt;/strong&gt; el rango de valores que un ítem de datos puede tomar</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;ENVIRONS: &lt;/strong&gt; el equipo de investigación de Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS) tiene su sede en la Universidad Estatal de Colorado en Fort Collins, CO, y es responsable de llevar a cabo el Estudio de Salud Comunitaria GES.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Geocodificación: &lt;/strong&gt; una técnica que identifica la ubicación de una dirección en un mapa utilizando coordenadas geográficas (longitud y latitud) para que pueda ser mostrada en un mapa.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;GES: &lt;/strong&gt; Globeville, Elyria y Swansea</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Histograma: &lt;/strong&gt; un tipo de gráfico que muestra la distribución de una variable. Los histogramas en la aplicación muestran el rango de valores para una variable en la parte inferior. Estos rangos se dividen en 30 intervalos. La altura de cada barra representa el número de vecindarios en ese intervalo.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Vecindarios: &lt;/strong&gt; la Ciudad y el Condado de Denver reconocen 78 vecindarios oficiales, incluido el Aeropuerto Internacional de Denver (DIA). Estos suelen estar compuestos por una colección de tramos censales. Por ejemplo, GES incluye tres tramos censales.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;NO2: &lt;/strong&gt; dióxido de nitrógeno; un tipo de contaminante del aire que proviene de fuentes de combustión como los motores de los automóviles y las instalaciones industriales.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;O3: &lt;/strong&gt; ozono; un tipo de contaminante del aire que se forma cuando el dióxido de nitrógeno y los compuestos orgánicos volátiles interactúan entre sí en presencia de luz solar.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;PM10: &lt;/strong&gt; material particulado de menos de 10 micrómetros de diámetro; PM contiene sólidos microscópicos o gotas líquidas que pueden ser inhaladas y causar problemas de salud graves.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;PM2.5: &lt;/strong&gt; material particulado de menos de 2.5 micrómetros de diámetro; PM contiene sólidos microscópicos o gotas líquidas que pueden ser inhaladas y causar problemas de salud graves. Algunas partículas de menos de 2.5 micrómetros de diámetro pueden llegar profundamente a sus pulmones y algunas pueden incluso llegar a su flujo sanguíneo.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;SNAP: &lt;/strong&gt; programa de Asistencia Nutricional Suplementaria (también conocido como cupones de alimentos)</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;SO2:&lt;/strong&gt; dióxido de azufre; un tipo de contaminante del aire que proviene principalmente de la combustión de carbón y combustible diésel.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Variable: &lt;/strong&gt; un elemento de datos que puede cambiar o tomar más de un valor</t>
+  </si>
+  <si>
+    <t>Este mapa incluye varias capas que representan diferentes variables. Haga clic en el icono de capa en la esquina superior derecha del mapa para seleccionar una variable de interés.</t>
+  </si>
+  <si>
+    <t>Para asistencia al acceder a la información en esta página, por favor comuníquese con el Centro de recursos de tecnología de asistencia de la Universidad Estatal de Colorado por correo electrónico: atrc@colostate.edu</t>
+  </si>
+  <si>
+    <t>For assistance accessing the information on this webpage, please contact the Assistive Technology Resource Center at Colorado State Unviersity by email: atrc@colostate.edu.</t>
+  </si>
+  <si>
+    <t>text_152</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Recommended Citation: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS). April 2025. GES Community Health Study Interactive Maps. Fort Collins, CO.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Cita recomendada: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS). Abril de 2025. Mapas Interactivos del Estudio de Salud Comunitaria GES. Fort Collins, CO.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;How to use this app:&lt;/b&gt; This app includes tools to help users understand better the distribution of environmental exposures and health outcomes across Denver. The purpose of this app is to document trends in the social and environmental factors that impact health in Denver neighborhoods so that community residents can learn more about the conditions that exist where they live.  The data available in this app should not be used to make determinations about specific causes of health or disease for any resident living in Denver.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Cómo utilizar esta aplicación:&lt;/b&gt; Esta aplicación incluye herramientas para ayudar a los usuarios a comprender mejor la distribución de exposiciones ambientales y resultados de salud en Denver. El propósito de esta aplicación es documentar las tendencias en los factores sociales y ambientales que impactan la salud en los vecindarios de Denver, para que los residentes de la comunidad puedan aprender más sobre las condiciones que existen donde viven. Los datos disponibles en esta aplicación no deben utilizarse para hacer determinaciones sobre las causas específicas de la salud o enfermedades de cualquier residente que viva en Denver.</t>
   </si>
 </sst>
 </file>
@@ -1349,15 +1419,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF222222"/>
       <name val="Aptos"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
+      <color theme="1"/>
       <name val="Aptos"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1380,19 +1447,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1729,17 +1799,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="86.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="97.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="97.5" style="4" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1750,7 +1820,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1759,21 +1829,21 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>374</v>
+        <v>291</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>446</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1781,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>381</v>
+        <v>286</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1792,10 +1862,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1803,10 +1873,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1814,10 +1884,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>382</v>
+        <v>287</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -1827,19 +1897,19 @@
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>285</v>
+        <v>450</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1847,10 +1917,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>288</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1860,8 +1930,8 @@
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1871,8 +1941,8 @@
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>221</v>
+      <c r="C12" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1880,10 +1950,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>227</v>
+        <v>172</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1891,10 +1961,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>295</v>
+        <v>218</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1904,8 +1974,8 @@
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
+      <c r="C15" s="5" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1915,8 +1985,8 @@
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
+      <c r="C16" s="5" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1924,10 +1994,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>222</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1935,10 +2005,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>164</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1946,10 +2016,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>223</v>
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1957,10 +2027,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>165</v>
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1968,10 +2038,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>224</v>
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1979,10 +2049,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>166</v>
+        <v>55</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1990,10 +2060,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>225</v>
+        <v>155</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2001,10 +2071,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>168</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2012,26 +2082,27 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>169</v>
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2039,10 +2110,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>171</v>
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2050,10 +2121,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>172</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2061,10 +2132,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>173</v>
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2072,10 +2143,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>174</v>
+        <v>62</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2083,10 +2154,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>175</v>
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2094,10 +2165,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>343</v>
+        <v>262</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2105,10 +2176,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2116,10 +2187,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>177</v>
+        <v>64</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2127,10 +2198,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>178</v>
+        <v>65</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2138,10 +2209,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>215</v>
+        <v>169</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2149,10 +2220,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>179</v>
+        <v>66</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2160,10 +2231,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>180</v>
+        <v>67</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2171,10 +2242,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>181</v>
+        <v>69</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2182,10 +2253,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2193,1179 +2264,1253 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>183</v>
+        <v>70</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>184</v>
+        <v>71</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>186</v>
+        <v>289</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>187</v>
+        <v>103</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>188</v>
+        <v>141</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>383</v>
+        <v>290</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>190</v>
+        <v>105</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>191</v>
+        <v>106</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>192</v>
+        <v>107</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>193</v>
+        <v>108</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>194</v>
+        <v>109</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>195</v>
+        <v>110</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>196</v>
+        <v>111</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>197</v>
+        <v>239</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>198</v>
+        <v>112</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>199</v>
+        <v>113</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>200</v>
+        <v>114</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>201</v>
+        <v>115</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>203</v>
+        <v>117</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>204</v>
+        <v>118</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>347</v>
+        <v>266</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>348</v>
+        <v>267</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>349</v>
+        <v>268</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>350</v>
+        <v>269</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>384</v>
+        <v>119</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>339</v>
+        <v>261</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>356</v>
+        <v>274</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>205</v>
+        <v>132</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>385</v>
+        <v>133</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>207</v>
+        <v>165</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>208</v>
+        <v>134</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>216</v>
+        <v>168</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>336</v>
+        <v>260</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>231</v>
+        <v>175</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>248</v>
+        <v>177</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>249</v>
+        <v>178</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>342</v>
+        <v>263</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>256</v>
+        <v>193</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>255</v>
+        <v>194</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>254</v>
+        <v>195</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>261</v>
+        <v>199</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>262</v>
+        <v>200</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>263</v>
+        <v>201</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>264</v>
+        <v>202</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>278</v>
+        <v>212</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>279</v>
+        <v>215</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>280</v>
+        <v>213</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>281</v>
+        <v>214</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>282</v>
+        <v>216</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>283</v>
+        <v>217</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>297</v>
+        <v>226</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>309</v>
+        <v>238</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>303</v>
+        <v>228</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>304</v>
+        <v>229</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>305</v>
+        <v>230</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>306</v>
+        <v>231</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>307</v>
+        <v>232</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>313</v>
+        <v>241</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>322</v>
+        <v>248</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>323</v>
+        <v>249</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>324</v>
+        <v>250</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>333</v>
+        <v>259</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>322</v>
+        <v>248</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>337</v>
+        <v>256</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>331</v>
+        <v>273</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>332</v>
+        <v>257</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>368</v>
+        <v>285</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>352</v>
+        <v>271</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>353</v>
+        <v>272</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>370</v>
+        <v>281</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>371</v>
+        <v>282</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>360</v>
+        <v>278</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>372</v>
+        <v>283</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>373</v>
+        <v>279</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>420</v>
+        <v>326</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>421</v>
+        <v>327</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>422</v>
+        <v>328</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>390</v>
+        <v>296</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>425</v>
+        <v>331</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>417</v>
+        <v>323</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>426</v>
+        <v>332</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>408</v>
+        <v>314</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>411</v>
+        <v>317</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>397</v>
+        <v>303</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>403</v>
+        <v>309</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>424</v>
+        <v>330</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3375,4 +3520,311 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a37677e5-1b95-4b15-ad17-c2245905d011" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3b28d1-dd5b-4818-90bf-d163a72c8f0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004A00BE2561B93438AA360303F4E6ECF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ae368bc77fe125c1e6657844bca4771">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3b28d1-dd5b-4818-90bf-d163a72c8f0a" xmlns:ns3="a37677e5-1b95-4b15-ad17-c2245905d011" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5aa8ccd9c059f1d4dbc610b243b983" ns2:_="" ns3:_="">
+    <xsd:import namespace="8c3b28d1-dd5b-4818-90bf-d163a72c8f0a"/>
+    <xsd:import namespace="a37677e5-1b95-4b15-ad17-c2245905d011"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c3b28d1-dd5b-4818-90bf-d163a72c8f0a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="576e6ad8-52fe-412f-a0b9-03ea580b6293" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="23" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a37677e5-1b95-4b15-ad17-c2245905d011" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7e59bb6d-7fc5-4261-a11f-14ab589c08fc}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a37677e5-1b95-4b15-ad17-c2245905d011">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E24F5B-1456-48CF-91D3-C32867BD6122}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E2A03F-E3AD-4163-99CA-F3F28F0C8F9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a37677e5-1b95-4b15-ad17-c2245905d011"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8c3b28d1-dd5b-4818-90bf-d163a72c8f0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3318D456-B678-43CE-8786-1FDFF370E717}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c3b28d1-dd5b-4818-90bf-d163a72c8f0a"/>
+    <ds:schemaRef ds:uri="a37677e5-1b95-4b15-ad17-c2245905d011"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu.sharepoint.com/sites/MarteniesLab2/Shared Documents/HELE Lab/projects/ges_health_study/data_analysis/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{271962A7-64A8-B944-AA4D-4D98F3015327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19C3E113-E7DC-EC40-9760-0579A99356C7}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{271962A7-64A8-B944-AA4D-4D98F3015327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD903DD-CF80-AA41-99D0-A179FF7E0E59}"/>
   <bookViews>
-    <workbookView xWindow="-36380" yWindow="1040" windowWidth="33840" windowHeight="19280" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="453">
   <si>
     <t>text_id</t>
   </si>
@@ -911,9 +911,6 @@
     <t>In addition to our community mapping exercise, the GES Community Health Study has generated a number of maps documenting environmental and health conditions in the GES neighborhoods. We have included these maps here for you to explore.</t>
   </si>
   <si>
-    <t>Lea este sitio en español: &lt;a href='https://smartenies.shinyapps.io/ges_health_study_app_espanol'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>text_131</t>
   </si>
   <si>
@@ -1382,16 +1379,22 @@
     <t>text_152</t>
   </si>
   <si>
-    <t>&lt;strong&gt;Recommended Citation: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS). April 2025. GES Community Health Study Interactive Maps. Fort Collins, CO.</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Cita recomendada: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS). Abril de 2025. Mapas Interactivos del Estudio de Salud Comunitaria GES. Fort Collins, CO.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;How to use this app:&lt;/b&gt; This app includes tools to help users understand better the distribution of environmental exposures and health outcomes across Denver. The purpose of this app is to document trends in the social and environmental factors that impact health in Denver neighborhoods so that community residents can learn more about the conditions that exist where they live.  The data available in this app should not be used to make determinations about specific causes of health or disease for any resident living in Denver.</t>
   </si>
   <si>
     <t>&lt;b&gt;Cómo utilizar esta aplicación:&lt;/b&gt; Esta aplicación incluye herramientas para ayudar a los usuarios a comprender mejor la distribución de exposiciones ambientales y resultados de salud en Denver. El propósito de esta aplicación es documentar las tendencias en los factores sociales y ambientales que impactan la salud en los vecindarios de Denver, para que los residentes de la comunidad puedan aprender más sobre las condiciones que existen donde viven. Los datos disponibles en esta aplicación no deben utilizarse para hacer determinaciones sobre las causas específicas de la salud o enfermedades de cualquier residente que viva en Denver.</t>
+  </si>
+  <si>
+    <t>Lea este sitio en español: &lt;a href='https://geshealthstudy.shinyapps.io/ges_health_study_app_espanol'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Lea este sitio en inglés: &lt;a href='https://geshealthstudy.shinyapps.io/ges_health_study_app_english'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Recommended Citation: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS). February 2025. GES Community Health Study Interactive Maps. Fort Collins, CO.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Cita recomendada: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS). Febrero de 2025. Mapas Interactivos del Estudio de Salud Comunitaria GES. Fort Collins, CO.</t>
   </si>
 </sst>
 </file>
@@ -1801,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1829,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>449</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>291</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1840,10 +1843,10 @@
         <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1854,7 +1857,7 @@
         <v>286</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1865,7 +1868,7 @@
         <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1876,7 +1879,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1887,7 +1890,7 @@
         <v>287</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -1898,7 +1901,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -1906,10 +1909,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1920,7 +1923,7 @@
         <v>288</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1942,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1953,7 +1956,7 @@
         <v>172</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1964,7 +1967,7 @@
         <v>218</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1975,7 +1978,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1986,7 +1989,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -1997,7 +2000,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2019,7 +2022,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2030,7 +2033,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2041,7 +2044,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2052,7 +2055,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2063,7 +2066,7 @@
         <v>155</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2113,7 +2116,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2124,7 +2127,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2146,7 +2149,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2168,7 +2171,7 @@
         <v>262</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2179,7 +2182,7 @@
         <v>173</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2201,7 +2204,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2212,7 +2215,7 @@
         <v>169</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2223,7 +2226,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2234,7 +2237,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2245,7 +2248,7 @@
         <v>69</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2256,7 +2259,7 @@
         <v>68</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2267,7 +2270,7 @@
         <v>70</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2278,7 +2281,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2289,7 +2292,7 @@
         <v>102</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2300,7 +2303,7 @@
         <v>289</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2322,7 +2325,7 @@
         <v>141</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2333,7 +2336,7 @@
         <v>290</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2344,7 +2347,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2366,7 +2369,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2377,7 +2380,7 @@
         <v>107</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2388,7 +2391,7 @@
         <v>108</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2399,7 +2402,7 @@
         <v>109</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2410,7 +2413,7 @@
         <v>110</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2421,7 +2424,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2432,7 +2435,7 @@
         <v>239</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2443,7 +2446,7 @@
         <v>112</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2454,7 +2457,7 @@
         <v>113</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2465,7 +2468,7 @@
         <v>114</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2476,7 +2479,7 @@
         <v>115</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="187" x14ac:dyDescent="0.2">
@@ -2487,7 +2490,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2498,7 +2501,7 @@
         <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2520,7 +2523,7 @@
         <v>266</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2575,7 +2578,7 @@
         <v>119</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2586,7 +2589,7 @@
         <v>261</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2597,7 +2600,7 @@
         <v>274</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2608,7 +2611,7 @@
         <v>132</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2619,7 +2622,7 @@
         <v>133</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2630,7 +2633,7 @@
         <v>165</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2641,7 +2644,7 @@
         <v>134</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2652,7 +2655,7 @@
         <v>135</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2663,7 +2666,7 @@
         <v>166</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2674,7 +2677,7 @@
         <v>138</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2718,7 +2721,7 @@
         <v>143</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2751,7 +2754,7 @@
         <v>151</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2762,7 +2765,7 @@
         <v>150</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2773,7 +2776,7 @@
         <v>168</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2784,7 +2787,7 @@
         <v>260</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2795,7 +2798,7 @@
         <v>175</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2817,7 +2820,7 @@
         <v>178</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2828,7 +2831,7 @@
         <v>263</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2839,7 +2842,7 @@
         <v>173</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2850,7 +2853,7 @@
         <v>240</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2905,7 +2908,7 @@
         <v>200</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2916,7 +2919,7 @@
         <v>201</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2938,7 +2941,7 @@
         <v>212</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -2949,7 +2952,7 @@
         <v>215</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2960,7 +2963,7 @@
         <v>213</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -2971,7 +2974,7 @@
         <v>214</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -2982,7 +2985,7 @@
         <v>216</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2993,7 +2996,7 @@
         <v>217</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3004,7 +3007,7 @@
         <v>219</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3026,7 +3029,7 @@
         <v>238</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3103,7 +3106,7 @@
         <v>248</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3114,7 +3117,7 @@
         <v>249</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3147,7 +3150,7 @@
         <v>248</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3158,7 +3161,7 @@
         <v>256</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3169,7 +3172,7 @@
         <v>273</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -3180,7 +3183,7 @@
         <v>257</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3191,7 +3194,7 @@
         <v>285</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3224,7 +3227,7 @@
         <v>280</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -3235,7 +3238,7 @@
         <v>281</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -3246,7 +3249,7 @@
         <v>282</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -3257,7 +3260,7 @@
         <v>283</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3268,249 +3271,249 @@
         <v>284</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -3796,16 +3799,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E2A03F-E3AD-4163-99CA-F3F28F0C8F9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a37677e5-1b95-4b15-ad17-c2245905d011"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a37677e5-1b95-4b15-ad17-c2245905d011"/>
     <ds:schemaRef ds:uri="8c3b28d1-dd5b-4818-90bf-d163a72c8f0a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ges_health_study_app/text_dictionary.xlsx
+++ b/ges_health_study_app/text_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu.sharepoint.com/sites/MarteniesLab2/Shared Documents/HELE Lab/projects/ges_health_study/data_analysis/ges_health_study_app/ges_health_study_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caitlinmothes/Desktop/ges_health_study_app/ges_health_study_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{271962A7-64A8-B944-AA4D-4D98F3015327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD903DD-CF80-AA41-99D0-A179FF7E0E59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FDF05-D8F5-A44D-99A8-7CEA274C31CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16280" xr2:uid="{8CCB3879-A5FF-D846-9F66-5161AE062B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1385,16 +1385,16 @@
     <t>&lt;b&gt;Cómo utilizar esta aplicación:&lt;/b&gt; Esta aplicación incluye herramientas para ayudar a los usuarios a comprender mejor la distribución de exposiciones ambientales y resultados de salud en Denver. El propósito de esta aplicación es documentar las tendencias en los factores sociales y ambientales que impactan la salud en los vecindarios de Denver, para que los residentes de la comunidad puedan aprender más sobre las condiciones que existen donde viven. Los datos disponibles en esta aplicación no deben utilizarse para hacer determinaciones sobre las causas específicas de la salud o enfermedades de cualquier residente que viva en Denver.</t>
   </si>
   <si>
-    <t>Lea este sitio en español: &lt;a href='https://geshealthstudy.shinyapps.io/ges_health_study_app_espanol'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Lea este sitio en inglés: &lt;a href='https://geshealthstudy.shinyapps.io/ges_health_study_app_english'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;strong&gt;Recommended Citation: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS). February 2025. GES Community Health Study Interactive Maps. Fort Collins, CO.</t>
   </si>
   <si>
     <t>&lt;strong&gt;Cita recomendada: &lt;/strong&gt; Estudio de Nuestros Vecinos para Investigar los Riesgos y Nuestra Salud (ENVIRONS). Febrero de 2025. Mapas Interactivos del Estudio de Salud Comunitaria GES. Fort Collins, CO.</t>
+  </si>
+  <si>
+    <t>Lea este sitio en inglés: &lt;a href='https://geocentroid.shinyapps.io/ges_health_study_app_english/'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Lea este sitio en español: &lt;a href='https://geocentroid.shinyapps.io/ges_health_study_app_espanol/'&gt; Mapas interactivos del Estudio de salud comunitaria del GES&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1804,14 +1804,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548E5ED1-4340-C04D-8029-23B2D57DC5C7}">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="86.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="99.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="97.5" style="4" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1827,15 +1827,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -3510,10 +3510,10 @@
         <v>446</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3526,15 +3526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a37677e5-1b95-4b15-ad17-c2245905d011" xsi:nil="true"/>
@@ -3543,6 +3534,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3789,14 +3789,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E24F5B-1456-48CF-91D3-C32867BD6122}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96E2A03F-E3AD-4163-99CA-F3F28F0C8F9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3809,6 +3801,14 @@
     <ds:schemaRef ds:uri="8c3b28d1-dd5b-4818-90bf-d163a72c8f0a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E24F5B-1456-48CF-91D3-C32867BD6122}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
